--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Transmisiones\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Transmisiones\repositorio\pyTransmisionesTalma\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Impo" sheetId="1" r:id="rId1"/>
     <sheet name="Expo" sheetId="2" r:id="rId2"/>
     <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Responsable</t>
   </si>
@@ -154,6 +155,76 @@
      Puerto origen (USMIA)
  - Solo a nivel de vuelos ya que aun no contamos con las guias
  - Data Input: Itinerario de vuelo hermes (todo el itinerario en el caso de un perfil "GHA" y el itinerario filtrado en caso de un perfil "TALMA"</t>
+  </si>
+  <si>
+    <t>Entregables</t>
+  </si>
+  <si>
+    <t>Tablero Impo</t>
+  </si>
+  <si>
+    <t>Tablero Expo</t>
+  </si>
+  <si>
+    <t>Tablero GHA</t>
+  </si>
+  <si>
+    <t>Agente de Carga</t>
+  </si>
+  <si>
+    <t>Obligaciones</t>
+  </si>
+  <si>
+    <t>Registro del ETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro del Anexo 4 - Termino de la descarga </t>
+  </si>
+  <si>
+    <t>Transmisión del Anexo 5 - Nota de tarja</t>
+  </si>
+  <si>
+    <t>Transmisión del Anexo 6 Master - Relación de bultos faltos, sobrantes y actas de inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmisión provisional </t>
+  </si>
+  <si>
+    <t>Transmisión complementaria</t>
+  </si>
+  <si>
+    <t>Transmisión del anexo 7 - ingreso y recepción de mercancias (FCL)</t>
+  </si>
+  <si>
+    <t>Transmisión del anexo 7 - ingreso y recepción de mercancias (LCL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmisión del anexo 6 House - Relación de bultos faltos, sobrantes y actas de inventario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmisión del manifieasto  de carga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmisión de la recepción de carga </t>
+  </si>
+  <si>
+    <t>STEDEX</t>
+  </si>
+  <si>
+    <t>Grupo de Procesos</t>
+  </si>
+  <si>
+    <t>Habilitar la transmisión por teledespacho</t>
+  </si>
+  <si>
+    <t>Transmisión Teledespacho</t>
+  </si>
+  <si>
+    <t>Documentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Documento de análisis y diseño del sistema
+ - Cronograma</t>
   </si>
 </sst>
 </file>
@@ -185,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +364,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,9 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,8 +388,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,6 +457,49 @@
         <a:xfrm>
           <a:off x="762000" y="190500"/>
           <a:ext cx="6343650" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199123</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="152400"/>
+          <a:ext cx="7219048" cy="3771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,19 +827,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -701,12 +849,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
@@ -722,11 +870,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
@@ -740,11 +888,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
@@ -758,11 +906,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
@@ -773,11 +921,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -788,11 +936,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -802,11 +950,11 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
@@ -814,25 +962,25 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -842,11 +990,11 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
@@ -854,11 +1002,11 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
@@ -866,13 +1014,13 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -882,11 +1030,11 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
@@ -924,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,4 +1081,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Impo" sheetId="1" r:id="rId1"/>
     <sheet name="Expo" sheetId="2" r:id="rId2"/>
     <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Links" sheetId="6" r:id="rId5"/>
+    <sheet name="Pantallas" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>Responsable</t>
   </si>
@@ -56,12 +58,6 @@
     <t>Documentos vinculados</t>
   </si>
   <si>
-    <t>Término de la descarga</t>
-  </si>
-  <si>
-    <t>Transmisión de la descarga de la mercancia</t>
-  </si>
-  <si>
     <t>Presentación física de los documentos del manifiesto de carga general</t>
   </si>
   <si>
@@ -110,9 +106,6 @@
     <t>Envío Correo</t>
   </si>
   <si>
-    <t>Acta de inventario de la carga arribada en mala condicion exterior o con medidas de seguridad violentadas</t>
-  </si>
-  <si>
     <t>Negocio</t>
   </si>
   <si>
@@ -122,9 +115,6 @@
     <t>Termino de embarque</t>
   </si>
   <si>
-    <t>Correo</t>
-  </si>
-  <si>
     <t>Expo</t>
   </si>
   <si>
@@ -141,12 +131,6 @@
   </si>
   <si>
     <t>Manifiesto de carga desconsolidado (complementaria)</t>
-  </si>
-  <si>
-    <t>Llegada y autorización de la descarga (anexo 4)</t>
-  </si>
-  <si>
-    <t>Provisional de Manifiesto de carga consolidado</t>
   </si>
   <si>
     <t xml:space="preserve"> -Información presentada: 
@@ -226,12 +210,45 @@
     <t xml:space="preserve"> - Documento de análisis y diseño del sistema
  - Cronograma</t>
   </si>
+  <si>
+    <t>Registro de la Fecha y Hora del Termino de Descarga  (anexo 4)</t>
+  </si>
+  <si>
+    <t>Registro de Fecha de Llegada y Autorización de la Descarga (anexo 1)</t>
+  </si>
+  <si>
+    <t>Hasta antes de la llegada del medio de transporte</t>
+  </si>
+  <si>
+    <t>Hasta 1 minuto antes del arribo del medio de transporte</t>
+  </si>
+  <si>
+    <t>Transmisión de la descarga de la mercancia - Nota de tarja (anexo 5)</t>
+  </si>
+  <si>
+    <t>Mater - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6)</t>
+  </si>
+  <si>
+    <t>3 días despues del embarque</t>
+  </si>
+  <si>
+    <t>Stedex</t>
+  </si>
+  <si>
+    <t>Manifiesto de carga</t>
+  </si>
+  <si>
+    <t>Autorizacion de la carga</t>
+  </si>
+  <si>
+    <t>http://www.aduanet.gob.pe/aduanas/informao/HRMIFingsi.htm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,14 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -346,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,33 +373,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,6 +391,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,6 +449,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="3714750"/>
+          <a:ext cx="7219048" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -468,7 +532,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -500,6 +564,49 @@
         <a:xfrm>
           <a:off x="6619875" y="152400"/>
           <a:ext cx="7219048" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>474898</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="0"/>
+          <a:ext cx="10819048" cy="4742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,19 +881,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="22" customWidth="1"/>
     <col min="6" max="6" width="67.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -802,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -814,245 +921,282 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>29</v>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C8:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1087,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,176 +1243,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="17" t="s">
+    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16" t="s">
+    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1286,4 +1430,39 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Impo" sheetId="1" r:id="rId1"/>
-    <sheet name="Expo" sheetId="2" r:id="rId2"/>
-    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="HU" sheetId="11" r:id="rId1"/>
+    <sheet name="Tablero" sheetId="1" r:id="rId2"/>
+    <sheet name="Tareas" sheetId="9" r:id="rId3"/>
+    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId4"/>
     <sheet name="Links" sheetId="6" r:id="rId5"/>
     <sheet name="Pantallas" sheetId="5" r:id="rId6"/>
+    <sheet name="Tablas" sheetId="7" r:id="rId7"/>
+    <sheet name="Consultas" sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>Responsable</t>
   </si>
@@ -116,15 +119,6 @@
   </si>
   <si>
     <t>Expo</t>
-  </si>
-  <si>
-    <t>Ingreso y recepción de la mercancia (anexo 7)</t>
-  </si>
-  <si>
-    <t>Inventario de carga arribada en mala condicion exterior o con medidas de seguridad violentadas (anexo 6)</t>
-  </si>
-  <si>
-    <t>Ingreso y recepción de la mercancia desconsolidada</t>
   </si>
   <si>
     <t>Información del manifiesto de carga y del manifiesto de carga desconsolidado (provisional)</t>
@@ -226,9 +220,6 @@
     <t>Transmisión de la descarga de la mercancia - Nota de tarja (anexo 5)</t>
   </si>
   <si>
-    <t>Mater - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6)</t>
-  </si>
-  <si>
     <t>3 días despues del embarque</t>
   </si>
   <si>
@@ -242,6 +233,162 @@
   </si>
   <si>
     <t>http://www.aduanet.gob.pe/aduanas/informao/HRMIFingsi.htm</t>
+  </si>
+  <si>
+    <t>Ingreso y recepción de la mercancia FCL (anexo 7)</t>
+  </si>
+  <si>
+    <t>Ingreso y recepción de la mercancia desconsolidada  LCL</t>
+  </si>
+  <si>
+    <t>HOUSE - Relación de bultos faltos, sobrantes y actas de inevntario (anexo 6)</t>
+  </si>
+  <si>
+    <t>MASTER - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6)</t>
+  </si>
+  <si>
+    <t>12 horas despues del termino de la descarga</t>
+  </si>
+  <si>
+    <t>2 días habiles despues del termino de la descarga</t>
+  </si>
+  <si>
+    <t>2 horas antes del arribo de la nave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 horas despues de la transmisión del manifiesto </t>
+  </si>
+  <si>
+    <t>3 días despues de la fecha de embarque</t>
+  </si>
+  <si>
+    <t>Lista de agentes con las que trabaja talma</t>
+  </si>
+  <si>
+    <t>CodigoIATA</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>CodigoAduana</t>
+  </si>
+  <si>
+    <t>ClaveAduana</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 horas despues del termino de la descarga </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?consultas con gonzalo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Creacion de tablas: T1, T2</t>
+  </si>
+  <si>
+    <t>Creacion del proyecto</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Consultar por los tiempos que faltan definir</t>
+  </si>
+  <si>
+    <t>GES</t>
+  </si>
+  <si>
+    <t>Tipo
+(BD/DES/GES)</t>
+  </si>
+  <si>
+    <t>Estado
+DOING/DONE</t>
+  </si>
+  <si>
+    <t>Tarea
+TO DO</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Parametros IN</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Códigos de Líneas Aéreas(GHA), Impo, Expo</t>
+  </si>
+  <si>
+    <t>TC_PARA_RESPONSABLE</t>
+  </si>
+  <si>
+    <t>TC_AGENTES_TLM</t>
+  </si>
+  <si>
+    <t>Consulta lista de itinerario de vuelo</t>
+  </si>
+  <si>
+    <t>USP_LST_ITINERARIO</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>ItinerarioVuelo.txt</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Caracteristica/Funcionalidad</t>
+  </si>
+  <si>
+    <t>Razon/Resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio de aceptacion </t>
   </si>
 </sst>
 </file>
@@ -265,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,16 +508,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,6 +542,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,23 +581,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,16 +623,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84823</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>56679</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599173</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>571029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -478,7 +649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048625" y="3714750"/>
+          <a:off x="13792200" y="419100"/>
           <a:ext cx="7219048" cy="3771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -536,6 +707,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>474898</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="0"/>
+          <a:ext cx="10819048" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -564,49 +778,6 @@
         <a:xfrm>
           <a:off x="6619875" y="152400"/>
           <a:ext cx="7219048" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>474898</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>170857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="0"/>
-          <a:ext cx="10819048" cy="4742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,20 +1052,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="67.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" style="14" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
@@ -914,61 +1117,61 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
@@ -979,18 +1182,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" t="s">
         <v>15</v>
       </c>
@@ -999,18 +1202,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" t="s">
         <v>15</v>
       </c>
@@ -1019,170 +1222,188 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="4" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="4" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="E17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1200,19 +1421,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1227,224 +1590,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1465,4 +1623,365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HU" sheetId="11" r:id="rId1"/>
@@ -560,6 +560,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,27 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
     <col min="2" max="2" width="45.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="20" customWidth="1"/>
     <col min="6" max="6" width="67.85546875" style="14" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -1117,7 +1117,7 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1137,13 +1137,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1160,11 +1160,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1182,11 +1182,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1202,11 +1202,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1222,11 +1222,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1239,11 +1239,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1256,11 +1256,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1272,11 +1272,11 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1286,11 +1286,11 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1300,11 +1300,11 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1312,13 +1312,13 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1330,25 +1330,25 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="20" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1358,13 +1358,13 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1376,11 +1376,11 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
@@ -1433,28 +1433,28 @@
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="28"/>
+    <col min="3" max="3" width="14.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:6" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       <c r="B3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1479,12 +1479,12 @@
       <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1493,82 +1493,82 @@
       <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1808,10 +1808,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1819,31 +1819,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1851,43 +1851,43 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1895,15 +1895,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1911,24 +1911,24 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1936,14 +1936,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="8" t="s">
         <v>36</v>
       </c>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HU" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
   <si>
     <t>Responsable</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Documentos vinculados</t>
   </si>
   <si>
-    <t>Presentación física de los documentos del manifiesto de carga general</t>
-  </si>
-  <si>
     <t>Registro</t>
   </si>
   <si>
@@ -125,14 +122,6 @@
   </si>
   <si>
     <t>Manifiesto de carga desconsolidado (complementaria)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Información presentada: 
-     Fecha de llegada del vuelo(30/01/2017 16:26), 
-     Aerolinea(T0 143) , 
-     Puerto origen (USMIA)
- - Solo a nivel de vuelos ya que aun no contamos con las guias
- - Data Input: Itinerario de vuelo hermes (todo el itinerario en el caso de un perfil "GHA" y el itinerario filtrado en caso de un perfil "TALMA"</t>
   </si>
   <si>
     <t>Entregables</t>
@@ -208,9 +197,6 @@
     <t>Registro de la Fecha y Hora del Termino de Descarga  (anexo 4)</t>
   </si>
   <si>
-    <t>Registro de Fecha de Llegada y Autorización de la Descarga (anexo 1)</t>
-  </si>
-  <si>
     <t>Hasta antes de la llegada del medio de transporte</t>
   </si>
   <si>
@@ -389,13 +375,43 @@
   </si>
   <si>
     <t xml:space="preserve">Criterio de aceptacion </t>
+  </si>
+  <si>
+    <t>Por definir, si es que TCI y PS nos lo pueden brindar ó tenemos que ir  a a ADUANA y obtenerlo</t>
+  </si>
+  <si>
+    <t>Registro de Fecha de Llegada y Autorización de la Descarga (anexo 1) - ETA</t>
+  </si>
+  <si>
+    <t>6 horas siguientes a su ocurrencia(lleada del vuelo)</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>&gt; HA</t>
+  </si>
+  <si>
+    <t>Indicador(HA=actual, HL: llegada)</t>
+  </si>
+  <si>
+    <t>HL- 2 &gt; HA</t>
+  </si>
+  <si>
+    <t>HL - 2 &lt;  HA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +427,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +472,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -504,11 +539,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,9 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,15 +598,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -601,6 +651,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,49 +716,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>599173</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>571029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13792200" y="419100"/>
-          <a:ext cx="7219048" cy="3771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -703,7 +756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -746,20 +799,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>199123</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113829</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18148</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -776,7 +829,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619875" y="152400"/>
+          <a:off x="8572500" y="352425"/>
           <a:ext cx="7219048" cy="3771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1062,19 +1115,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1084,340 +1137,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="67.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="71.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="16" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H3" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="4" t="s">
+      <c r="H5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="3" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" t="s">
+      <c r="E7" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>28</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="E8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="3" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="E15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="C8:C11"/>
+  <mergeCells count="16">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="C9:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1433,29 +1630,29 @@
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="21"/>
+    <col min="3" max="3" width="14.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>84</v>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,112 +1660,112 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,7 +1799,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1643,64 +1840,64 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1728,52 +1925,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1797,176 +1994,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
   <si>
     <t>Responsable</t>
   </si>
@@ -73,33 +73,18 @@
     <t>TCI</t>
   </si>
   <si>
-    <t>Correo: xxx@xxx.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">App Contenedor </t>
   </si>
   <si>
     <t>Teledespacho/TCI</t>
   </si>
   <si>
-    <t>http:www.sunat.com</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitar buzon de correo </t>
-  </si>
-  <si>
     <t>Archivos de respuesta</t>
   </si>
   <si>
     <t>Archivos de envío</t>
   </si>
   <si>
-    <t>2 horas antes de la llegada del medio de transporte</t>
-  </si>
-  <si>
     <t>Transportista</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
   </si>
   <si>
     <t>Impo</t>
-  </si>
-  <si>
-    <t>Termino de embarque</t>
   </si>
   <si>
     <t>Expo</t>
@@ -206,48 +188,18 @@
     <t>Transmisión de la descarga de la mercancia - Nota de tarja (anexo 5)</t>
   </si>
   <si>
-    <t>3 días despues del embarque</t>
-  </si>
-  <si>
     <t>Stedex</t>
   </si>
   <si>
     <t>Manifiesto de carga</t>
   </si>
   <si>
-    <t>Autorizacion de la carga</t>
-  </si>
-  <si>
     <t>http://www.aduanet.gob.pe/aduanas/informao/HRMIFingsi.htm</t>
   </si>
   <si>
-    <t>Ingreso y recepción de la mercancia FCL (anexo 7)</t>
-  </si>
-  <si>
-    <t>Ingreso y recepción de la mercancia desconsolidada  LCL</t>
-  </si>
-  <si>
-    <t>HOUSE - Relación de bultos faltos, sobrantes y actas de inevntario (anexo 6)</t>
-  </si>
-  <si>
-    <t>MASTER - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6)</t>
-  </si>
-  <si>
-    <t>12 horas despues del termino de la descarga</t>
-  </si>
-  <si>
-    <t>2 días habiles despues del termino de la descarga</t>
-  </si>
-  <si>
     <t>2 horas antes del arribo de la nave</t>
   </si>
   <si>
-    <t xml:space="preserve">12 horas despues de la transmisión del manifiesto </t>
-  </si>
-  <si>
-    <t>3 días despues de la fecha de embarque</t>
-  </si>
-  <si>
     <t>Lista de agentes con las que trabaja talma</t>
   </si>
   <si>
@@ -264,12 +216,6 @@
   </si>
   <si>
     <t>Pendiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 horas despues del termino de la descarga </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ?consultas con gonzalo</t>
   </si>
   <si>
     <t>Estado</t>
@@ -383,9 +329,6 @@
     <t>Registro de Fecha de Llegada y Autorización de la Descarga (anexo 1) - ETA</t>
   </si>
   <si>
-    <t>6 horas siguientes a su ocurrencia(lleada del vuelo)</t>
-  </si>
-  <si>
     <t>Verde</t>
   </si>
   <si>
@@ -395,23 +338,158 @@
     <t>Rojo</t>
   </si>
   <si>
-    <t>&gt; HA</t>
-  </si>
-  <si>
-    <t>Indicador(HA=actual, HL: llegada)</t>
-  </si>
-  <si>
-    <t>HL- 2 &gt; HA</t>
-  </si>
-  <si>
-    <t>HL - 2 &lt;  HA</t>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>HL- TN &gt; HA</t>
+  </si>
+  <si>
+    <t>HL - TN &lt;=  HA &lt; HL - TR</t>
+  </si>
+  <si>
+    <t>HL - TR &lt;= HA</t>
+  </si>
+  <si>
+    <t>H. Ref.</t>
+  </si>
+  <si>
+    <t>Archivos Transmisión</t>
+  </si>
+  <si>
+    <t>Correo
+transmisiones@talma.com.pe</t>
+  </si>
+  <si>
+    <t>http://www.aduanet.gob.pe/ol-ad-ittarja/tarjaS02Alias</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Falta la lista de los codigos de usuarios y claves de acceso de las LA para el ingreso a las operaciones de manifiesto de carga - aduana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operaciones de manifiesto de carga </t>
+  </si>
+  <si>
+    <t>TN(h)</t>
+  </si>
+  <si>
+    <t>TR(h)</t>
+  </si>
+  <si>
+    <t>"1/60"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitar buzon de correo 
+Validar que cada GHA cuente con un buzon de correo diferente 
+Mapear buzon por grupo de GHA - Falta lista  de buzones de correos  </t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Indicador(HA=actual, HL: llegada, HD: descarga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmar el tiempo, de 6h ya que gonzalo me alcanzó el tiempo de 2h antes del arribo
+</t>
+  </si>
+  <si>
+    <t>Hasta 6 horas siguientes a su ocurrencia(llegada del vuelo)</t>
+  </si>
+  <si>
+    <t>Hasta antes de la llegada para puertos cercanos</t>
+  </si>
+  <si>
+    <t>Hasta 2 horas antes de la llegada del medio de transporte,  algunos puertos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 horas despúes del término de la descarga </t>
+  </si>
+  <si>
+    <t>Falta la la lista de puertos cercanos y los que no lo son , en caso de que se realice esa diferenciación</t>
+  </si>
+  <si>
+    <t>2 días hábiles despúes del término de la descarga</t>
+  </si>
+  <si>
+    <t>Verificar la página web SITRADI para saber desde donde y como realiza dicha transmisión</t>
+  </si>
+  <si>
+    <t>Validar si es que inicialmente la hora des descarga sera la hora de llegada de itinerario? Ó que hora deberia considerar inicialmente para la hora de descarga
+Verificar la página web SITRADI para saber desde donde y como realiza dicha transmisión
+Ingresar al sitradi: jsanchez/12345</t>
+  </si>
+  <si>
+    <t>http://192.168.131.150/sites/talma/qasitradi/Mantenimiento/Manifiestos/Transmisiones/frmGenerarArchivosTransmision_man.aspx</t>
+  </si>
+  <si>
+    <t>Transmisiones manifiestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?consultar con gonzalo</t>
+  </si>
+  <si>
+    <t>Validar si el correo el diferente o igual al que se envia en documentos vinculados  de recepcion de vuelvo , si es el mismo definir la manera como reconocer uno de otro envío</t>
+  </si>
+  <si>
+    <t>Término de embarque</t>
+  </si>
+  <si>
+    <t>Autorización de la carga</t>
+  </si>
+  <si>
+    <t>Falta los plazo para esta obligación</t>
+  </si>
+  <si>
+    <t>http://www.aduanet.gob.pe/cl-ad-itenvio/teledespachoConsultaITS02Alias?accion=consultarxOrdenOperador&amp;cadu=235&amp;tipmail=T&amp;fechproc=03/02/2018&amp;tipoper=4&amp;opera=9173&amp;wreg=01&amp;wanord=2018&amp;norden=052705</t>
+  </si>
+  <si>
+    <t>Dentro de las 12 horas  siguientes a su ocurrencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?Consultar con Gonzalo si lo hacen </t>
+  </si>
+  <si>
+    <t>Validar con gonzalo, porque  en un documento de jimmy lei que decia que son 2 dias contados desde el dia siguiente del termino del embarque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicialmente de donde sacamos este datos?, se va a ingresar dentro del itinerario de expo ?, contra que hora lo comparamos </t>
+  </si>
+  <si>
+    <t>3 días despúes del término de embarque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 horas despúes de la transmisión del manifiesto </t>
+  </si>
+  <si>
+    <t>3 días despúes de la fecha de embarque</t>
+  </si>
+  <si>
+    <t>12 horas despúes del término de la descarga</t>
+  </si>
+  <si>
+    <t>Depósito Temporal</t>
+  </si>
+  <si>
+    <t>Ingreso y recepción de la mercancia FCL (anexo 7 - master)</t>
+  </si>
+  <si>
+    <t>MASTER - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6 - master)</t>
+  </si>
+  <si>
+    <t>HOUSE - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6 - house)</t>
+  </si>
+  <si>
+    <t>Ingreso y recepción de la mercancia desconsolidada  LCL  (anexo 7 - house)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +518,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +571,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -563,11 +698,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,9 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,41 +777,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -680,6 +796,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,14 +817,109 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -796,6 +1016,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>417809</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="5524500"/>
+          <a:ext cx="10323809" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -803,16 +1061,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>18148</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123354</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361048</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>342429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,7 +1087,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="352425"/>
+          <a:off x="2819400" y="0"/>
           <a:ext cx="7219048" cy="3771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1115,19 +1373,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1137,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,454 +1407,644 @@
     <col min="2" max="2" width="45.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="71.140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="16" style="30" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="43" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="16" style="44" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="B3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="44" t="s">
+      <c r="H3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="29">
+        <v>3</v>
+      </c>
+      <c r="K3" s="29">
+        <v>2</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="64"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="4" t="s">
+      <c r="I4" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="29">
+        <v>2</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="39" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="24"/>
+      <c r="I5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="29">
+        <v>2</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="29">
+        <v>1</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="37"/>
       <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="29">
+        <v>-4</v>
+      </c>
+      <c r="K7" s="29">
+        <v>-6</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+      <c r="B8" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="E8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="29">
+        <v>-6</v>
+      </c>
+      <c r="K8" s="29">
+        <v>-8</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="38"/>
       <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="29">
+        <v>-32</v>
+      </c>
+      <c r="K9" s="29">
+        <v>-48</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="24"/>
+      <c r="E10" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="37"/>
       <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="4" t="s">
+      <c r="E12" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>25</v>
-      </c>
+      <c r="C13" s="38"/>
       <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>67</v>
+      <c r="E14" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="28"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="40"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>66</v>
+      <c r="E15" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>68</v>
+      <c r="E16" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="25"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>69</v>
+      <c r="E17" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>70</v>
+      <c r="E18" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="20">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1605,13 +2053,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1630,29 +2072,29 @@
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="18"/>
+    <col min="3" max="3" width="14.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>81</v>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,112 +2102,112 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,7 +2219,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,17 +2231,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="121.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1809,16 +2273,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1840,64 +2313,64 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1925,52 +2398,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1995,175 +2468,175 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>22</v>
+      <c r="A2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>22</v>
+      <c r="A6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -449,9 +449,6 @@
     <t>Dentro de las 12 horas  siguientes a su ocurrencia</t>
   </si>
   <si>
-    <t xml:space="preserve">?Consultar con Gonzalo si lo hacen </t>
-  </si>
-  <si>
     <t>Validar con gonzalo, porque  en un documento de jimmy lei que decia que son 2 dias contados desde el dia siguiente del termino del embarque</t>
   </si>
   <si>
@@ -483,6 +480,9 @@
   </si>
   <si>
     <t>Ingreso y recepción de la mercancia desconsolidada  LCL  (anexo 7 - house)</t>
+  </si>
+  <si>
+    <t>?Consultar con Gonzalo si lo hacen  y  los plazos</t>
   </si>
 </sst>
 </file>
@@ -802,120 +802,120 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,69 +1411,69 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="71.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="43" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" style="43" customWidth="1"/>
-    <col min="12" max="12" width="16" style="44" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="31" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="16" style="32" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="32" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" style="17" customWidth="1"/>
     <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="46" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="47"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="45" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="33" t="s">
         <v>112</v>
       </c>
       <c r="L2" s="15" t="s">
@@ -1493,19 +1493,19 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="40" t="s">
         <v>120</v>
       </c>
       <c r="F3" s="48"/>
@@ -1537,11 +1537,11 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="58" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="40" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="49"/>
@@ -1573,11 +1573,11 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1613,11 +1613,11 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="J6" s="29">
         <v>1</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="39" t="s">
         <v>113</v>
       </c>
       <c r="L6" s="29" t="s">
@@ -1653,11 +1653,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1693,11 +1693,11 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1733,11 +1733,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="38"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="54"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1773,11 +1773,11 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1789,7 +1789,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="3"/>
       <c r="H10" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -1801,11 +1801,11 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1827,21 +1827,21 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="3"/>
       <c r="H12" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -1853,16 +1853,16 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="3"/>
@@ -1879,20 +1879,20 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -1907,11 +1907,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="40"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="56"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1931,16 +1931,16 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="41"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="57"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -1955,13 +1955,13 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1984,15 +1984,15 @@
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -2018,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -2034,6 +2034,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
@@ -2041,13 +2048,6 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -2282,7 +2282,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="41" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2478,10 +2478,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="69" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2489,31 +2489,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="69" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2521,43 +2521,43 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2565,15 +2565,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2581,24 +2581,24 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="69" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2606,14 +2606,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="7" t="s">
         <v>28</v>
       </c>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HU" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="189">
   <si>
     <t>Responsable</t>
   </si>
@@ -483,6 +483,132 @@
   </si>
   <si>
     <t>?Consultar con Gonzalo si lo hacen  y  los plazos</t>
+  </si>
+  <si>
+    <t>Registro de la Fecha y Hora del Término de Descarga  (anexo 4)</t>
+  </si>
+  <si>
+    <t>TABLA: CONFIG_TABLERO</t>
+  </si>
+  <si>
+    <t>PERFIL</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>IMPO</t>
+  </si>
+  <si>
+    <t>Transportista, Agente, Deposito</t>
+  </si>
+  <si>
+    <t>EXPO</t>
+  </si>
+  <si>
+    <t>Transportista, Agente</t>
+  </si>
+  <si>
+    <t>TABLA: PROCESOS</t>
+  </si>
+  <si>
+    <t>TABLA:  PERFIL</t>
+  </si>
+  <si>
+    <t>TABLA: RESPONSABLE</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>ALIAS(nombre tablero)</t>
+  </si>
+  <si>
+    <t>HGA</t>
+  </si>
+  <si>
+    <t>TRANSPORTISTA</t>
+  </si>
+  <si>
+    <t>AGENTE_CARGA</t>
+  </si>
+  <si>
+    <t>DEPOSITO_TEMPORAL</t>
+  </si>
+  <si>
+    <t>definir que es lo que va a ver el gha(que opciones de impo y que opciones de expo?, tendran 2 tableros cada gha ?</t>
+  </si>
+  <si>
+    <t>TABLA: AGENTES_TALMA</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>TABLA: GRUPO_LINEA_AEREA</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>LAN AIRLINES</t>
+  </si>
+  <si>
+    <t>LAN PERU</t>
+  </si>
+  <si>
+    <t>TACA</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>NOMBRE_LA</t>
+  </si>
+  <si>
+    <t>COD_ADUANA</t>
+  </si>
+  <si>
+    <t>CLAVE_ADUANA</t>
+  </si>
+  <si>
+    <t>TABLA: ACCESOS_PERFIL</t>
+  </si>
+  <si>
+    <t>ID_GRUPO</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>"COD ADUAN"</t>
+  </si>
+  <si>
+    <t>"CLAVE ADUANA"</t>
+  </si>
+  <si>
+    <t>ADM_EXPO</t>
+  </si>
+  <si>
+    <t>ADM_IMPO</t>
   </si>
 </sst>
 </file>
@@ -534,7 +660,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +736,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,6 +971,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,12 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,30 +1043,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,6 +1055,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1395,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G17"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,25 +1590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="50" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="50" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="66" t="s">
@@ -1453,19 +1622,19 @@
       <c r="L1" s="68"/>
       <c r="M1" s="68"/>
       <c r="N1" s="68"/>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="43"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="67"/>
       <c r="I2" s="33" t="s">
         <v>104</v>
@@ -1493,22 +1662,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1537,14 +1706,14 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="47"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1573,11 +1742,11 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1613,11 +1782,11 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1653,11 +1822,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="53"/>
+        <v>147</v>
+      </c>
+      <c r="C7" s="49"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1693,11 +1862,11 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1733,11 +1902,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1773,11 +1942,11 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1801,11 +1970,11 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1814,7 +1983,7 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>132</v>
       </c>
       <c r="I11" s="29"/>
@@ -1827,11 +1996,11 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1853,11 +2022,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1879,13 +2048,13 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="60" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1907,11 +2076,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1931,11 +2100,11 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1955,13 +2124,13 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1983,11 +2152,11 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2176,7 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="37" t="s">
         <v>51</v>
       </c>
@@ -2032,15 +2201,13 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
@@ -2054,6 +2221,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2275,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2297,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,9 +2483,13 @@
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2328,7 +2506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2354,7 +2532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2368,12 +2546,468 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="O13" s="70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="R14" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" s="80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>3</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" s="70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="R22" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="S22" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="T22" s="72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="73">
+        <v>1</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="76">
+        <v>1</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="E24" s="21">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="76">
+        <v>2</v>
+      </c>
+      <c r="I24" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>2</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="21">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="76">
+        <v>3</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="2">
+        <v>3</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>4</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>5</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>6</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>7</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>8</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>9</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>10</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>11</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>12</v>
+      </c>
+      <c r="B35" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>13</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>14</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>15</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>16</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="210">
   <si>
     <t>Responsable</t>
   </si>
@@ -417,205 +417,271 @@
     <t>Verificar la página web SITRADI para saber desde donde y como realiza dicha transmisión</t>
   </si>
   <si>
-    <t>Validar si es que inicialmente la hora des descarga sera la hora de llegada de itinerario? Ó que hora deberia considerar inicialmente para la hora de descarga
+    <t>http://192.168.131.150/sites/talma/qasitradi/Mantenimiento/Manifiestos/Transmisiones/frmGenerarArchivosTransmision_man.aspx</t>
+  </si>
+  <si>
+    <t>Transmisiones manifiestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?consultar con gonzalo</t>
+  </si>
+  <si>
+    <t>Validar si el correo el diferente o igual al que se envia en documentos vinculados  de recepcion de vuelvo , si es el mismo definir la manera como reconocer uno de otro envío</t>
+  </si>
+  <si>
+    <t>Término de embarque</t>
+  </si>
+  <si>
+    <t>Autorización de la carga</t>
+  </si>
+  <si>
+    <t>Falta los plazo para esta obligación</t>
+  </si>
+  <si>
+    <t>http://www.aduanet.gob.pe/cl-ad-itenvio/teledespachoConsultaITS02Alias?accion=consultarxOrdenOperador&amp;cadu=235&amp;tipmail=T&amp;fechproc=03/02/2018&amp;tipoper=4&amp;opera=9173&amp;wreg=01&amp;wanord=2018&amp;norden=052705</t>
+  </si>
+  <si>
+    <t>Dentro de las 12 horas  siguientes a su ocurrencia</t>
+  </si>
+  <si>
+    <t>Validar con gonzalo, porque  en un documento de jimmy lei que decia que son 2 dias contados desde el dia siguiente del termino del embarque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicialmente de donde sacamos este datos?, se va a ingresar dentro del itinerario de expo ?, contra que hora lo comparamos </t>
+  </si>
+  <si>
+    <t>3 días despúes del término de embarque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 horas despúes de la transmisión del manifiesto </t>
+  </si>
+  <si>
+    <t>3 días despúes de la fecha de embarque</t>
+  </si>
+  <si>
+    <t>12 horas despúes del término de la descarga</t>
+  </si>
+  <si>
+    <t>Depósito Temporal</t>
+  </si>
+  <si>
+    <t>Ingreso y recepción de la mercancia FCL (anexo 7 - master)</t>
+  </si>
+  <si>
+    <t>MASTER - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6 - master)</t>
+  </si>
+  <si>
+    <t>HOUSE - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6 - house)</t>
+  </si>
+  <si>
+    <t>Ingreso y recepción de la mercancia desconsolidada  LCL  (anexo 7 - house)</t>
+  </si>
+  <si>
+    <t>?Consultar con Gonzalo si lo hacen  y  los plazos</t>
+  </si>
+  <si>
+    <t>Registro de la Fecha y Hora del Término de Descarga  (anexo 4)</t>
+  </si>
+  <si>
+    <t>TABLA: CONFIG_TABLERO</t>
+  </si>
+  <si>
+    <t>PERFIL</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>IMPO</t>
+  </si>
+  <si>
+    <t>Transportista, Agente, Deposito</t>
+  </si>
+  <si>
+    <t>EXPO</t>
+  </si>
+  <si>
+    <t>Transportista, Agente</t>
+  </si>
+  <si>
+    <t>TABLA: PROCESOS</t>
+  </si>
+  <si>
+    <t>TABLA:  PERFIL</t>
+  </si>
+  <si>
+    <t>TABLA: RESPONSABLE</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>ALIAS(nombre tablero)</t>
+  </si>
+  <si>
+    <t>HGA</t>
+  </si>
+  <si>
+    <t>TRANSPORTISTA</t>
+  </si>
+  <si>
+    <t>AGENTE_CARGA</t>
+  </si>
+  <si>
+    <t>DEPOSITO_TEMPORAL</t>
+  </si>
+  <si>
+    <t>definir que es lo que va a ver el gha(que opciones de impo y que opciones de expo?, tendran 2 tableros cada gha ?</t>
+  </si>
+  <si>
+    <t>TABLA: AGENTES_TALMA</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>TABLA: GRUPO_LINEA_AEREA</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>LAN AIRLINES</t>
+  </si>
+  <si>
+    <t>LAN PERU</t>
+  </si>
+  <si>
+    <t>TACA</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>NOMBRE_LA</t>
+  </si>
+  <si>
+    <t>COD_ADUANA</t>
+  </si>
+  <si>
+    <t>CLAVE_ADUANA</t>
+  </si>
+  <si>
+    <t>TABLA: ACCESOS_PERFIL</t>
+  </si>
+  <si>
+    <t>ID_GRUPO</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>"COD ADUAN"</t>
+  </si>
+  <si>
+    <t>"CLAVE ADUANA"</t>
+  </si>
+  <si>
+    <t>ADM_EXPO</t>
+  </si>
+  <si>
+    <t>ADM_IMPO</t>
+  </si>
+  <si>
+    <t>FECHA_LLEG_VUELO</t>
+  </si>
+  <si>
+    <t>AEROLINEA</t>
+  </si>
+  <si>
+    <t>PTO. ORIGEN</t>
+  </si>
+  <si>
+    <t>MANIFIESTO</t>
+  </si>
+  <si>
+    <t>NUMERACION</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>ANEXO 4</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>USMIA</t>
+  </si>
+  <si>
+    <t>AREZE</t>
+  </si>
+  <si>
+    <t>COBOG</t>
+  </si>
+  <si>
+    <t>ANEXO 6</t>
+  </si>
+  <si>
+    <t>ANEXO 5</t>
+  </si>
+  <si>
+    <t>DOCU. VINCULADOS</t>
+  </si>
+  <si>
+    <t>FECHA_SALIDA_VUELO</t>
+  </si>
+  <si>
+    <t>PTO. DESTINO</t>
+  </si>
+  <si>
+    <t>BULTOS MANIFESTADOS</t>
+  </si>
+  <si>
+    <t>AUT. DE LA CARGA</t>
+  </si>
+  <si>
+    <t>TERMINO DEL EMBARQUE</t>
+  </si>
+  <si>
+    <t>MANIF. DE CARGA DE SALIDA</t>
+  </si>
+  <si>
+    <t>Validar si es que inicialmente la hora des descarga sera la hora de llegada de itinerario? Ó que hora deberia considerar inicialmente para la hora de descarga(rpta: se trabajara inicialmente con la hora de llegada,  pero solo hasta )
 Verificar la página web SITRADI para saber desde donde y como realiza dicha transmisión
 Ingresar al sitradi: jsanchez/12345</t>
-  </si>
-  <si>
-    <t>http://192.168.131.150/sites/talma/qasitradi/Mantenimiento/Manifiestos/Transmisiones/frmGenerarArchivosTransmision_man.aspx</t>
-  </si>
-  <si>
-    <t>Transmisiones manifiestos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ?consultar con gonzalo</t>
-  </si>
-  <si>
-    <t>Validar si el correo el diferente o igual al que se envia en documentos vinculados  de recepcion de vuelvo , si es el mismo definir la manera como reconocer uno de otro envío</t>
-  </si>
-  <si>
-    <t>Término de embarque</t>
-  </si>
-  <si>
-    <t>Autorización de la carga</t>
-  </si>
-  <si>
-    <t>Falta los plazo para esta obligación</t>
-  </si>
-  <si>
-    <t>http://www.aduanet.gob.pe/cl-ad-itenvio/teledespachoConsultaITS02Alias?accion=consultarxOrdenOperador&amp;cadu=235&amp;tipmail=T&amp;fechproc=03/02/2018&amp;tipoper=4&amp;opera=9173&amp;wreg=01&amp;wanord=2018&amp;norden=052705</t>
-  </si>
-  <si>
-    <t>Dentro de las 12 horas  siguientes a su ocurrencia</t>
-  </si>
-  <si>
-    <t>Validar con gonzalo, porque  en un documento de jimmy lei que decia que son 2 dias contados desde el dia siguiente del termino del embarque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicialmente de donde sacamos este datos?, se va a ingresar dentro del itinerario de expo ?, contra que hora lo comparamos </t>
-  </si>
-  <si>
-    <t>3 días despúes del término de embarque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 horas despúes de la transmisión del manifiesto </t>
-  </si>
-  <si>
-    <t>3 días despúes de la fecha de embarque</t>
-  </si>
-  <si>
-    <t>12 horas despúes del término de la descarga</t>
-  </si>
-  <si>
-    <t>Depósito Temporal</t>
-  </si>
-  <si>
-    <t>Ingreso y recepción de la mercancia FCL (anexo 7 - master)</t>
-  </si>
-  <si>
-    <t>MASTER - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6 - master)</t>
-  </si>
-  <si>
-    <t>HOUSE - Relación de bultos faltos, sobrantes y actas de inventario (anexo 6 - house)</t>
-  </si>
-  <si>
-    <t>Ingreso y recepción de la mercancia desconsolidada  LCL  (anexo 7 - house)</t>
-  </si>
-  <si>
-    <t>?Consultar con Gonzalo si lo hacen  y  los plazos</t>
-  </si>
-  <si>
-    <t>Registro de la Fecha y Hora del Término de Descarga  (anexo 4)</t>
-  </si>
-  <si>
-    <t>TABLA: CONFIG_TABLERO</t>
-  </si>
-  <si>
-    <t>PERFIL</t>
-  </si>
-  <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>IMPO</t>
-  </si>
-  <si>
-    <t>Transportista, Agente, Deposito</t>
-  </si>
-  <si>
-    <t>EXPO</t>
-  </si>
-  <si>
-    <t>Transportista, Agente</t>
-  </si>
-  <si>
-    <t>TABLA: PROCESOS</t>
-  </si>
-  <si>
-    <t>TABLA:  PERFIL</t>
-  </si>
-  <si>
-    <t>TABLA: RESPONSABLE</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>ALIAS(nombre tablero)</t>
-  </si>
-  <si>
-    <t>HGA</t>
-  </si>
-  <si>
-    <t>TRANSPORTISTA</t>
-  </si>
-  <si>
-    <t>AGENTE_CARGA</t>
-  </si>
-  <si>
-    <t>DEPOSITO_TEMPORAL</t>
-  </si>
-  <si>
-    <t>definir que es lo que va a ver el gha(que opciones de impo y que opciones de expo?, tendran 2 tableros cada gha ?</t>
-  </si>
-  <si>
-    <t>TABLA: AGENTES_TALMA</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>TABLA: GRUPO_LINEA_AEREA</t>
-  </si>
-  <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>LAN</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>LAN AIRLINES</t>
-  </si>
-  <si>
-    <t>LAN PERU</t>
-  </si>
-  <si>
-    <t>TACA</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>NOMBRE_LA</t>
-  </si>
-  <si>
-    <t>COD_ADUANA</t>
-  </si>
-  <si>
-    <t>CLAVE_ADUANA</t>
-  </si>
-  <si>
-    <t>TABLA: ACCESOS_PERFIL</t>
-  </si>
-  <si>
-    <t>ID_GRUPO</t>
-  </si>
-  <si>
-    <t>USUARIO</t>
-  </si>
-  <si>
-    <t>CLAVE</t>
-  </si>
-  <si>
-    <t>"COD ADUAN"</t>
-  </si>
-  <si>
-    <t>"CLAVE ADUANA"</t>
-  </si>
-  <si>
-    <t>ADM_EXPO</t>
-  </si>
-  <si>
-    <t>ADM_IMPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +725,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +837,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -849,12 +947,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,87 +1085,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,22 +1095,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1086,9 +1107,142 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="16" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1230,16 +1384,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361048</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>342429</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589648</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>532929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1256,7 +1410,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="0"/>
+          <a:off x="5362575" y="0"/>
           <a:ext cx="7219048" cy="3771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1266,6 +1420,1522 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279737</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="8458200"/>
+          <a:ext cx="9128462" cy="1940241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533377</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="9201150"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542902</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="9429750"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542902</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="9677400"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552427</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="9858375"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466702</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="9201150"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476227</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="9429750"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476227</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="9658350"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485752</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="9877425"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476227</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="9191625"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485752</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="9420225"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485752</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="9648825"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495277</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="9867900"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="9191625"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466702</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="9420225"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466702</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="9648825"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476227</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="9867900"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="9182100"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466702</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="9410700"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466702</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="9639300"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476227</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="9858375"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428602</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896350" y="9182100"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438127</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="9410700"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438127</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="9639300"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447652</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="9858375"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>242070</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="10563225"/>
+          <a:ext cx="9024120" cy="1872245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="9248775"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="9477375"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="9705975"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="9925050"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="9239250"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="9467850"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="9696450"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="9915525"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagen 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="9239250"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagen 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="9467850"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="9696450"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="9915525"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="9229725"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="9458325"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="9686925"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="180952" cy="190476"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="9906000"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1566,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,52 +3260,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
       <c r="O1" s="52" t="s">
         <v>105</v>
       </c>
       <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="67"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="33" t="s">
         <v>104</v>
       </c>
@@ -1662,13 +3332,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="80" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="56" t="s">
@@ -1706,9 +3376,9 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="55"/>
-      <c r="C4" s="49"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="57"/>
       <c r="E4" s="40" t="s">
         <v>119</v>
@@ -1742,11 +3412,11 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1782,11 +3452,11 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1822,11 +3492,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="49"/>
+        <v>146</v>
+      </c>
+      <c r="C7" s="80"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1861,12 +3531,12 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +3548,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>115</v>
@@ -1902,11 +3572,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="43"/>
+        <v>142</v>
+      </c>
+      <c r="C9" s="81"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1942,23 +3612,23 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="84" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="3"/>
       <c r="H10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -1970,21 +3640,21 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="C11" s="78"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="3"/>
       <c r="H11" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -1996,21 +3666,21 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="3"/>
       <c r="H12" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -2022,21 +3692,21 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="3"/>
       <c r="H13" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -2049,19 +3719,19 @@
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="85" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -2078,9 +3748,9 @@
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="64"/>
+        <v>143</v>
+      </c>
+      <c r="C15" s="86"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2102,14 +3772,14 @@
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="65"/>
+        <v>144</v>
+      </c>
+      <c r="C16" s="87"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -2124,13 +3794,13 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="68" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="82" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2152,16 +3822,16 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
@@ -2176,18 +3846,18 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="88" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -2202,12 +3872,19 @@
       <c r="P19" s="2"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="H22" s="81" t="s">
-        <v>166</v>
+      <c r="H22" s="50" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
@@ -2221,13 +3898,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2434,10 +4104,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
         <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +4127,7 @@
   <sheetData>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2473,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,68 +4222,68 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="B10" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C13" s="2"/>
-      <c r="O13" s="70" t="s">
+      <c r="O13" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" s="49" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O14" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="80" t="s">
+      <c r="R14" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="80" t="s">
+      <c r="S14" s="49" t="s">
         <v>183</v>
-      </c>
-      <c r="S14" s="80" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2621,16 +4291,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,16 +4308,16 @@
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2655,13 +4325,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S17" s="2">
         <v>1234567</v>
@@ -2672,92 +4342,92 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S18" s="2">
         <v>1234567</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="H21" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="K21" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="C22" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="O21" s="70" t="s">
+      <c r="M22" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="45" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="O22" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" s="72" t="s">
+      <c r="Q22" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="Q22" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="R22" s="72" t="s">
+      <c r="R22" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="S22" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="S22" s="72" t="s">
+      <c r="T22" s="45" t="s">
         <v>179</v>
-      </c>
-      <c r="T22" s="72" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2772,13 +4442,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="46">
+        <v>1</v>
+      </c>
+      <c r="I23" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="H23" s="76">
-        <v>1</v>
-      </c>
-      <c r="I23" s="77" t="s">
-        <v>163</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -2789,13 +4459,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -2803,18 +4473,18 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
       <c r="B24" s="74"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="76"/>
       <c r="E24" s="21">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="76">
+        <v>152</v>
+      </c>
+      <c r="H24" s="46">
         <v>2</v>
       </c>
-      <c r="I24" s="77" t="s">
-        <v>164</v>
+      <c r="I24" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="K24" s="2">
         <v>2</v>
@@ -2825,13 +4495,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="R24" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -2840,7 +4510,7 @@
       <c r="A25" s="13">
         <v>2</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2"/>
@@ -2848,13 +4518,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="76">
+        <v>154</v>
+      </c>
+      <c r="H25" s="46">
         <v>3</v>
       </c>
-      <c r="I25" s="77" t="s">
-        <v>165</v>
+      <c r="I25" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="K25" s="2">
         <v>3</v>
@@ -2865,13 +4535,13 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="R25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -2880,7 +4550,7 @@
       <c r="A26" s="13">
         <v>3</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="2"/>
@@ -2889,7 +4559,7 @@
       <c r="A27" s="13">
         <v>4</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="48" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="2"/>
@@ -2898,7 +4568,7 @@
       <c r="A28" s="13">
         <v>5</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="2"/>
@@ -2907,8 +4577,8 @@
       <c r="A29" s="13">
         <v>6</v>
       </c>
-      <c r="B29" s="79" t="s">
-        <v>143</v>
+      <c r="B29" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -2916,8 +4586,8 @@
       <c r="A30" s="13">
         <v>7</v>
       </c>
-      <c r="B30" s="79" t="s">
-        <v>130</v>
+      <c r="B30" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -2925,8 +4595,8 @@
       <c r="A31" s="13">
         <v>8</v>
       </c>
-      <c r="B31" s="79" t="s">
-        <v>131</v>
+      <c r="B31" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -2934,7 +4604,7 @@
       <c r="A32" s="13">
         <v>9</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="48" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="2"/>
@@ -2943,7 +4613,7 @@
       <c r="A33" s="13">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2"/>
@@ -2952,8 +4622,8 @@
       <c r="A34" s="13">
         <v>11</v>
       </c>
-      <c r="B34" s="79" t="s">
-        <v>142</v>
+      <c r="B34" s="48" t="s">
+        <v>141</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -2961,8 +4631,8 @@
       <c r="A35" s="13">
         <v>12</v>
       </c>
-      <c r="B35" s="79" t="s">
-        <v>144</v>
+      <c r="B35" s="48" t="s">
+        <v>143</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -2970,8 +4640,8 @@
       <c r="A36" s="13">
         <v>13</v>
       </c>
-      <c r="B36" s="79" t="s">
-        <v>145</v>
+      <c r="B36" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -2979,7 +4649,7 @@
       <c r="A37" s="13">
         <v>14</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2"/>
@@ -2988,7 +4658,7 @@
       <c r="A38" s="13">
         <v>15</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2"/>
@@ -2997,7 +4667,7 @@
       <c r="A39" s="13">
         <v>16</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="2"/>
@@ -3087,202 +4757,491 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="77"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="77"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="77"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="77"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="77"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="77"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="77"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="77"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="77"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="77"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69" t="s">
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="77"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="77"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="77"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="5" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="77"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="77"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="30" spans="1:12" s="89" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" s="89" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="96"/>
+      <c r="E31" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="L31" s="95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
+      <c r="B32" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="92">
+        <v>761</v>
+      </c>
+      <c r="E32" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="93">
+        <v>201800000000359</v>
+      </c>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+    </row>
+    <row r="33" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="92">
+        <v>46</v>
+      </c>
+      <c r="E33" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="93">
+        <v>201800000000361</v>
+      </c>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+    </row>
+    <row r="34" spans="1:12" s="89" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="92">
+        <v>2393</v>
+      </c>
+      <c r="E34" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="93">
+        <v>201800000000352</v>
+      </c>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+    </row>
+    <row r="35" spans="1:12" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="92">
+        <v>143</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="93">
+        <v>201800000000396</v>
+      </c>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+    </row>
+    <row r="36" spans="1:12" s="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" s="89" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:12" s="89" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="96"/>
+      <c r="E39" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="J39" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" s="97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="90"/>
+      <c r="B40" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="92">
+        <v>761</v>
+      </c>
+      <c r="E40" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="93">
+        <v>201800000000359</v>
+      </c>
+      <c r="G40" s="92">
+        <v>23</v>
+      </c>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+    </row>
+    <row r="41" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="92">
+        <v>46</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="93">
+        <v>201800000000361</v>
+      </c>
+      <c r="G41" s="92">
+        <v>25</v>
+      </c>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+    </row>
+    <row r="42" spans="1:12" s="89" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="92">
+        <v>2393</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="93">
+        <v>201800000000352</v>
+      </c>
+      <c r="G42" s="92">
+        <v>27</v>
+      </c>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+    </row>
+    <row r="43" spans="1:12" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="91">
+        <v>43104</v>
+      </c>
+      <c r="C43" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="92">
+        <v>143</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="93">
+        <v>201800000000396</v>
+      </c>
+      <c r="G43" s="92">
+        <v>29</v>
+      </c>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+    </row>
+    <row r="44" spans="1:12" s="89" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A19"/>
+  <mergeCells count="10">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HU" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="212">
   <si>
     <t>Responsable</t>
   </si>
@@ -672,6 +672,12 @@
     <t>Validar si es que inicialmente la hora des descarga sera la hora de llegada de itinerario? Ó que hora deberia considerar inicialmente para la hora de descarga(rpta: se trabajara inicialmente con la hora de llegada,  pero solo hasta )
 Verificar la página web SITRADI para saber desde donde y como realiza dicha transmisión
 Ingresar al sitradi: jsanchez/12345</t>
+  </si>
+  <si>
+    <t>Registro Término de embarque</t>
+  </si>
+  <si>
+    <t>Registro Autorización de la carga</t>
   </si>
 </sst>
 </file>
@@ -1107,114 +1113,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,10 +1132,118 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3237,7 +3243,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3260,52 +3266,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="52" t="s">
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="53"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="33" t="s">
         <v>104</v>
       </c>
@@ -3332,22 +3338,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="77" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3376,14 +3382,14 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3412,11 +3418,11 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="80"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3452,11 +3458,11 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3492,11 +3498,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3532,11 +3538,11 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3572,11 +3578,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3612,11 +3618,11 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3640,11 +3646,11 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="78"/>
+        <v>211</v>
+      </c>
+      <c r="C11" s="69"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3666,11 +3672,11 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3692,11 +3698,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
@@ -3718,13 +3724,13 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="81" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="86" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3746,11 +3752,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="86"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -3770,11 +3776,11 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="87"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3794,13 +3800,13 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="63" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3822,11 +3828,11 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
@@ -3846,11 +3852,11 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="52" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -3878,13 +3884,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
@@ -3898,6 +3897,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3908,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4143,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F13"/>
+    <sheetView topLeftCell="G12" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4431,13 +4437,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="73">
+      <c r="A23" s="92">
         <v>1</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="94"/>
       <c r="E23" s="21">
         <v>1</v>
       </c>
@@ -4471,9 +4477,9 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="95"/>
       <c r="E24" s="21">
         <v>2</v>
       </c>
@@ -4792,11 +4798,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="97" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="97" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4804,35 +4810,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="77"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="77"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="77"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="77"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="77"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="97" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="97" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4840,49 +4846,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="77"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="77"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="77"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="77"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="77"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="77"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
+    <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="97"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="77"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="97" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4890,45 +4896,45 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="77"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="77"/>
+    <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B14" s="97"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="97" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
+    <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B15" s="97"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
+    <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B16" s="97"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="97" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="97" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -4936,15 +4942,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="77"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="42"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -4973,263 +4979,263 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="89" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" s="89" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="95" t="s">
+    <row r="30" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="59" t="s">
         <v>188</v>
       </c>
       <c r="C31" s="96" t="s">
         <v>189</v>
       </c>
       <c r="D31" s="96"/>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="95" t="s">
+      <c r="F31" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="95" t="s">
+      <c r="G31" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="95" t="s">
+      <c r="H31" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="95" t="s">
+      <c r="I31" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="J31" s="97" t="s">
+      <c r="J31" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="K31" s="95" t="s">
+      <c r="K31" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="L31" s="95" t="s">
+      <c r="L31" s="59" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91">
+    <row r="32" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55">
         <v>43104</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="56">
         <v>761</v>
       </c>
-      <c r="E32" s="92" t="s">
+      <c r="E32" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="57">
         <v>201800000000359</v>
       </c>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-    </row>
-    <row r="33" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="91">
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+    </row>
+    <row r="33" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="55">
         <v>43104</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="56">
         <v>46</v>
       </c>
-      <c r="E33" s="92" t="s">
+      <c r="E33" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F33" s="57">
         <v>201800000000361</v>
       </c>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-    </row>
-    <row r="34" spans="1:12" s="89" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91">
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+    </row>
+    <row r="34" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="55">
         <v>43104</v>
       </c>
-      <c r="C34" s="91" t="s">
+      <c r="C34" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="56">
         <v>2393</v>
       </c>
-      <c r="E34" s="92" t="s">
+      <c r="E34" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="57">
         <v>201800000000352</v>
       </c>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-    </row>
-    <row r="35" spans="1:12" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="91">
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+    </row>
+    <row r="35" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="55">
         <v>43104</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="56">
         <v>143</v>
       </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="93">
+      <c r="F35" s="57">
         <v>201800000000396</v>
       </c>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-    </row>
-    <row r="36" spans="1:12" s="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" s="89" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" s="89" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="95" t="s">
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+    </row>
+    <row r="36" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="59" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="96" t="s">
         <v>189</v>
       </c>
       <c r="D39" s="96"/>
-      <c r="E39" s="95" t="s">
+      <c r="E39" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="95" t="s">
+      <c r="F39" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="G39" s="97" t="s">
+      <c r="G39" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="97" t="s">
+      <c r="H39" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="I39" s="97" t="s">
+      <c r="I39" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="97" t="s">
+      <c r="J39" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="97" t="s">
+      <c r="K39" s="60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="91">
+    <row r="40" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="55">
         <v>43104</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="92">
+      <c r="D40" s="56">
         <v>761</v>
       </c>
-      <c r="E40" s="92" t="s">
+      <c r="E40" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="F40" s="93">
+      <c r="F40" s="57">
         <v>201800000000359</v>
       </c>
-      <c r="G40" s="92">
+      <c r="G40" s="56">
         <v>23</v>
       </c>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-    </row>
-    <row r="41" spans="1:12" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="91">
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+    </row>
+    <row r="41" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="55">
         <v>43104</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="92">
+      <c r="D41" s="56">
         <v>46</v>
       </c>
-      <c r="E41" s="92" t="s">
+      <c r="E41" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="93">
+      <c r="F41" s="57">
         <v>201800000000361</v>
       </c>
-      <c r="G41" s="92">
+      <c r="G41" s="56">
         <v>25</v>
       </c>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-    </row>
-    <row r="42" spans="1:12" s="89" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="91">
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="55">
         <v>43104</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="56">
         <v>2393</v>
       </c>
-      <c r="E42" s="92" t="s">
+      <c r="E42" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="93">
+      <c r="F42" s="57">
         <v>201800000000352</v>
       </c>
-      <c r="G42" s="92">
+      <c r="G42" s="56">
         <v>27</v>
       </c>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-    </row>
-    <row r="43" spans="1:12" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="91">
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+    </row>
+    <row r="43" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="55">
         <v>43104</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="92">
+      <c r="D43" s="56">
         <v>143</v>
       </c>
-      <c r="E43" s="92" t="s">
+      <c r="E43" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="93">
+      <c r="F43" s="57">
         <v>201800000000396</v>
       </c>
-      <c r="G43" s="92">
+      <c r="G43" s="56">
         <v>29</v>
       </c>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-    </row>
-    <row r="44" spans="1:12" s="89" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+    </row>
+    <row r="44" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C31:D31"/>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="HU" sheetId="11" r:id="rId1"/>
-    <sheet name="Tablero" sheetId="1" r:id="rId2"/>
-    <sheet name="Tareas" sheetId="9" r:id="rId3"/>
-    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId4"/>
-    <sheet name="Links" sheetId="6" r:id="rId5"/>
-    <sheet name="Pantallas" sheetId="5" r:id="rId6"/>
-    <sheet name="Tablas" sheetId="7" r:id="rId7"/>
-    <sheet name="Consultas" sheetId="10" r:id="rId8"/>
+    <sheet name="Tablero" sheetId="1" r:id="rId1"/>
+    <sheet name="Tareas" sheetId="9" r:id="rId2"/>
+    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId3"/>
+    <sheet name="Links" sheetId="6" r:id="rId4"/>
+    <sheet name="Pantallas" sheetId="5" r:id="rId5"/>
+    <sheet name="Tablas" sheetId="7" r:id="rId6"/>
+    <sheet name="Consultas" sheetId="10" r:id="rId7"/>
+    <sheet name="Aerolineas" sheetId="12" r:id="rId8"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="270">
   <si>
     <t>Responsable</t>
   </si>
@@ -309,18 +309,6 @@
   </si>
   <si>
     <t>ItinerarioVuelo.txt</t>
-  </si>
-  <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Caracteristica/Funcionalidad</t>
-  </si>
-  <si>
-    <t>Razon/Resultado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criterio de aceptacion </t>
   </si>
   <si>
     <t>Por definir, si es que TCI y PS nos lo pueden brindar ó tenemos que ir  a a ADUANA y obtenerlo</t>
@@ -678,6 +666,193 @@
   </si>
   <si>
     <t>Registro Autorización de la carga</t>
+  </si>
+  <si>
+    <t>Línea Aérea</t>
+  </si>
+  <si>
+    <t>Usuario Aduana</t>
+  </si>
+  <si>
+    <t>Clave Aduana</t>
+  </si>
+  <si>
+    <t>Buzon correo 
+(Documentos vinculados - Impo/Exo)</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MARTINAIR HOLLAND N.V. SUCURSAL PERUANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLM         </t>
+  </si>
+  <si>
+    <t>GRUPO KLM</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>KLM CIA. REAL HOLANDESA DE AVIACION</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>ABSA AEROLINHAS BRASILEIRAS SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAN         </t>
+  </si>
+  <si>
+    <t>GRUPO LAN</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>TAM Lineas Aereas</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>LAN ECUADOR SUCURSAL PERU</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>LAN COLOMBIA S.A.</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>LAN ARGENTINA S.A. - SUCURSAL PERU</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>SUC. PERUANA DE FLORIDA WEST</t>
+  </si>
+  <si>
+    <t>LATAM AIRLINES GROUP S.A</t>
+  </si>
+  <si>
+    <t>LAN PERU S.A.</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>MAS AIR S.A. DE C.V. SUCURSAL PERUANA</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>LAN CARGO S.A. SUCURSAL PERU</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LACSA - LINEAS AEREAS COSTARRICENSES S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCA         </t>
+  </si>
+  <si>
+    <t>GRUPO TACA</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>TAMPA CARGO S.A. SUCURSAL PERUANA</t>
+  </si>
+  <si>
+    <t>TRANS AMERICAN AIR LINES S.A</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AVIANCA</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>TACA INTERNATIONAL AIRLINES SA - SUCURSAL PERU</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>UNITED AIRLINES INC. SUCURSAL DEL PERU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA          </t>
+  </si>
+  <si>
+    <t>GRUPO UA</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>CENTURION AIR CARGO INC SUCURSAL DEL PERU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE          </t>
+  </si>
+  <si>
+    <t>GRUPO WE</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>CIELOS DEL PERU</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>POLAR AIR CARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Y          </t>
+  </si>
+  <si>
+    <t>GRUPO 5Y</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>SKY AIRLINES PERU</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>ATLAS AIR INC.</t>
+  </si>
+  <si>
+    <t>Código Grupo</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Código Línea Aérea</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1149,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,6 +1309,69 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,69 +1402,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,6 +1419,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3208,42 +3388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,69 +3414,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="62"/>
+    </row>
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="74"/>
-    </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O2" s="23" t="s">
         <v>16</v>
@@ -3338,30 +3486,30 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="65" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="79"/>
+        <v>116</v>
+      </c>
+      <c r="F3" s="67"/>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J3" s="29">
         <v>3</v>
@@ -3370,34 +3518,34 @@
         <v>2</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="80"/>
+        <v>115</v>
+      </c>
+      <c r="F4" s="68"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J4" s="29">
         <v>2</v>
@@ -3406,23 +3554,23 @@
         <v>0</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3431,13 +3579,13 @@
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J5" s="29">
         <v>2</v>
@@ -3446,23 +3594,23 @@
         <v>0</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="84"/>
+        <v>92</v>
+      </c>
+      <c r="C6" s="72"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3474,50 +3622,50 @@
         <v>13</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J6" s="29">
         <v>1</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="84"/>
+        <v>142</v>
+      </c>
+      <c r="C7" s="72"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J7" s="29">
         <v>-4</v>
@@ -3526,38 +3674,38 @@
         <v>-6</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J8" s="29">
         <v>-6</v>
@@ -3566,38 +3714,38 @@
         <v>-8</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="85"/>
+        <v>138</v>
+      </c>
+      <c r="C9" s="73"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J9" s="29">
         <v>-32</v>
@@ -3606,35 +3754,35 @@
         <v>-48</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="3"/>
       <c r="H10" s="27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -3646,21 +3794,21 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="69"/>
+        <v>207</v>
+      </c>
+      <c r="C11" s="90"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="3"/>
       <c r="H11" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -3672,21 +3820,21 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="3"/>
       <c r="H12" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -3698,21 +3846,21 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="3"/>
       <c r="H13" s="27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -3724,20 +3872,20 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
-        <v>140</v>
+      <c r="A14" s="69" t="s">
+        <v>136</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="74" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -3752,16 +3900,16 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="87"/>
+        <v>139</v>
+      </c>
+      <c r="C15" s="75"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -3776,16 +3924,16 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="88"/>
+        <v>140</v>
+      </c>
+      <c r="C16" s="76"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -3800,13 +3948,13 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="82" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3828,16 +3976,16 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
@@ -3852,7 +4000,7 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="37" t="s">
         <v>51</v>
       </c>
@@ -3863,7 +4011,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -3879,11 +4027,18 @@
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="H22" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
@@ -3897,24 +4052,17 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4064,7 +4212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4079,12 +4227,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,18 +4250,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4121,11 +4269,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4133,7 +4281,7 @@
   <sheetData>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4145,11 +4293,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="G12" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -4229,15 +4377,15 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>4</v>
@@ -4245,34 +4393,34 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="O13" s="43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4280,16 +4428,16 @@
         <v>67</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="R14" s="49" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="S14" s="49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4297,16 +4445,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -4314,16 +4462,16 @@
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -4331,13 +4479,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="S17" s="2">
         <v>1234567</v>
@@ -4348,13 +4496,13 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S18" s="2">
         <v>1234567</v>
@@ -4369,19 +4517,19 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -4389,51 +4537,51 @@
         <v>67</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M22" s="45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="P22" s="45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S22" s="45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -4448,13 +4596,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H23" s="46">
         <v>1</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4465,13 +4613,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -4484,13 +4632,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H24" s="46">
         <v>2</v>
       </c>
       <c r="I24" s="47" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K24" s="2">
         <v>2</v>
@@ -4501,13 +4649,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -4524,13 +4672,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H25" s="46">
         <v>3</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K25" s="2">
         <v>3</v>
@@ -4541,13 +4689,13 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -4557,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -4584,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -4593,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -4602,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -4629,7 +4777,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -4638,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -4647,7 +4795,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -4688,7 +4836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -4761,12 +4909,1462 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="30"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="21"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="21"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="21"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="21"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="21"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="21"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="21"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="21"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="21"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="21"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="21"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="21"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="21"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="21"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="21"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="21"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="21"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="21"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="21"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="21"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="21"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="21"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="21"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="21"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="21"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="21"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="21"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D140">
+    <sortCondition ref="A14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4982,35 +6580,35 @@
     <row r="30" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D31" s="96"/>
       <c r="E31" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>194</v>
-      </c>
       <c r="J31" s="60" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K31" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L31" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5019,13 +6617,13 @@
         <v>43104</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D32" s="56">
         <v>761</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F32" s="57">
         <v>201800000000359</v>
@@ -5042,13 +6640,13 @@
         <v>43104</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D33" s="56">
         <v>46</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F33" s="57">
         <v>201800000000361</v>
@@ -5065,13 +6663,13 @@
         <v>43104</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D34" s="56">
         <v>2393</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F34" s="57">
         <v>201800000000352</v>
@@ -5088,13 +6686,13 @@
         <v>43104</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D35" s="56">
         <v>143</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F35" s="57">
         <v>201800000000396</v>
@@ -5110,32 +6708,32 @@
     <row r="38" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C39" s="96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D39" s="96"/>
       <c r="E39" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="J39" s="60" t="s">
-        <v>208</v>
-      </c>
       <c r="K39" s="60" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5144,13 +6742,13 @@
         <v>43104</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D40" s="56">
         <v>761</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F40" s="57">
         <v>201800000000359</v>
@@ -5168,13 +6766,13 @@
         <v>43104</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D41" s="56">
         <v>46</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F41" s="57">
         <v>201800000000361</v>
@@ -5192,13 +6790,13 @@
         <v>43104</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D42" s="56">
         <v>2393</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F42" s="57">
         <v>201800000000352</v>
@@ -5216,13 +6814,13 @@
         <v>43104</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D43" s="56">
         <v>143</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F43" s="57">
         <v>201800000000396</v>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
@@ -1309,121 +1309,121 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3390,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3414,52 +3414,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="61" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="62"/>
+      <c r="P1" s="77"/>
     </row>
     <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="33" t="s">
         <v>100</v>
       </c>
@@ -3486,22 +3486,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="80" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="67"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3530,14 +3530,14 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="66"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3566,11 +3566,11 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3606,11 +3606,11 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3646,11 +3646,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3686,11 +3686,11 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3726,11 +3726,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="73"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3766,11 +3766,11 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="71" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3794,11 +3794,11 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3820,11 +3820,11 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3846,11 +3846,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="91"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
@@ -3872,13 +3872,13 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="84" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="89" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3900,11 +3900,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -3924,11 +3924,11 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3948,13 +3948,13 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="64" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3976,11 +3976,11 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="37" t="s">
         <v>51</v>
       </c>
@@ -4032,13 +4032,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
@@ -4052,6 +4045,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4585,13 +4585,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="92">
+      <c r="A23" s="95">
         <v>1</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="94"/>
+      <c r="C23" s="97"/>
       <c r="E23" s="21">
         <v>1</v>
       </c>
@@ -4625,9 +4625,9 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="95"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="98"/>
       <c r="E24" s="21">
         <v>2</v>
       </c>
@@ -5920,9 +5920,9 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="98"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="61"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -6396,11 +6396,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6408,35 +6408,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="97"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="97"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="97"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="97"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -6444,49 +6444,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="97"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="97"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="97"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="97"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="97"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="100" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6494,17 +6494,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="97"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="100" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -6512,27 +6512,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="97"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="100" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -6540,15 +6540,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="97"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="42"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -6582,10 +6582,10 @@
       <c r="B31" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="96"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="59" t="s">
         <v>186</v>
       </c>
@@ -6710,10 +6710,10 @@
       <c r="B39" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="96"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="59" t="s">
         <v>200</v>
       </c>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="273">
   <si>
     <t>Responsable</t>
   </si>
@@ -853,6 +853,17 @@
   </si>
   <si>
     <t>Código Línea Aérea</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>GHA.IMPO,
+IMPO</t>
+  </si>
+  <si>
+    <t>GHA.EXPO,
+EXPO</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1160,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,6 +1325,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,12 +1379,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,9 +1449,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3388,670 +3414,707 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.140625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="31" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="16" style="32" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="31" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" style="31" customWidth="1"/>
+    <col min="13" max="13" width="16" style="32" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="17" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="C1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="D1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="E1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="G1" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="H1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="I1" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="J1" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="76" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="77"/>
-    </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="33" t="s">
+      <c r="Q1" s="83"/>
+    </row>
+    <row r="2" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="K2" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="L2" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="C3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="D3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="E3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="J3" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="29">
+      <c r="K3" s="29">
         <v>3</v>
       </c>
-      <c r="K3" s="29">
+      <c r="L3" s="29">
         <v>2</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="N3" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="O3" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="69"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="40" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="29">
+      <c r="K4" s="29">
         <v>2</v>
       </c>
-      <c r="K4" s="29">
+      <c r="L4" s="29">
         <v>0</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="69"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="93"/>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="J5" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="29">
+      <c r="K5" s="29">
         <v>2</v>
       </c>
-      <c r="K5" s="29">
+      <c r="L5" s="29">
         <v>0</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="O5" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="69"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="93"/>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="J6" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="29">
+      <c r="K6" s="29">
         <v>1</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="L6" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="M6" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="N6" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="O6" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="69"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="93"/>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="29">
+      <c r="K7" s="29">
         <v>-4</v>
       </c>
-      <c r="K7" s="29">
+      <c r="L7" s="29">
         <v>-6</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="M7" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="N7" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="O7" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="69"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="93"/>
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="29">
+      <c r="K8" s="29">
         <v>-6</v>
       </c>
-      <c r="K8" s="29">
+      <c r="L8" s="29">
         <v>-8</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="M8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="N8" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="O8" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="36" t="s">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="I9" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="J9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="29">
+      <c r="K9" s="29">
         <v>-32</v>
       </c>
-      <c r="K9" s="29">
+      <c r="L9" s="29">
         <v>-48</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="M9" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="N9" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="O9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="35" t="s">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="D10" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="27" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="2"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="80"/>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="F12" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="27" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="2"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="27" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="2"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="C14" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="D14" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="34" t="s">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="34" t="s">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="97"/>
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="2"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="D17" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="F17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="2"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="2"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="37" t="s">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="D19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="2"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="H22" s="50" t="s">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="I22" s="50" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="25">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4585,13 +4648,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="95">
+      <c r="A23" s="101">
         <v>1</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="97"/>
+      <c r="C23" s="103"/>
       <c r="E23" s="21">
         <v>1</v>
       </c>
@@ -4625,9 +4688,9 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="98"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="104"/>
       <c r="E24" s="21">
         <v>2</v>
       </c>
@@ -6364,7 +6427,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6396,11 +6459,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6408,35 +6471,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="100"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="100"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="100"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="67" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -6444,49 +6507,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="100"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="100"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="100"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="100"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="67" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6494,17 +6557,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="100"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="100"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="67" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -6512,27 +6575,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="100"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="100"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="67" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -6540,15 +6603,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="100"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="42"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -6582,10 +6645,10 @@
       <c r="B31" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="99"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="59" t="s">
         <v>186</v>
       </c>
@@ -6710,10 +6773,10 @@
       <c r="B39" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="99" t="s">
+      <c r="C39" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="99"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="59" t="s">
         <v>200</v>
       </c>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -1328,12 +1328,99 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,93 +1435,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3416,8 +3416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,56 +3441,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="82" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="83"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="99"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="33" t="s">
         <v>100</v>
       </c>
@@ -3517,25 +3517,25 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="69" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3564,15 +3564,15 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="87"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3601,12 +3601,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="93"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3642,12 +3642,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="93"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3683,12 +3683,12 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="93"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3724,12 +3724,12 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3765,12 +3765,12 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="94"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3806,14 +3806,14 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="93" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3837,12 +3837,12 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3864,12 +3864,12 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3891,12 +3891,12 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
@@ -3918,16 +3918,16 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="73" t="s">
         <v>136</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="78" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3949,12 +3949,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="96"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -3974,12 +3974,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="97"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3999,16 +3999,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="86" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4030,12 +4030,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="A19" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="76"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="37" t="s">
         <v>51</v>
       </c>
@@ -4090,6 +4090,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4103,18 +4115,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6459,11 +6459,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="96" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="96" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6471,35 +6471,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="67"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="67"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="67"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="96" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="96" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -6507,49 +6507,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="67"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="67"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="67"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="67"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="96" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6557,17 +6557,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="67"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="96" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -6575,27 +6575,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="67"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="96" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="96" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -6603,15 +6603,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="67"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="67"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="42"/>
       <c r="D19" s="7" t="s">
         <v>28</v>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="325">
   <si>
     <t>Responsable</t>
   </si>
@@ -387,18 +387,12 @@
     <t>Hasta 6 horas siguientes a su ocurrencia(llegada del vuelo)</t>
   </si>
   <si>
-    <t>Hasta antes de la llegada para puertos cercanos</t>
-  </si>
-  <si>
     <t>Hasta 2 horas antes de la llegada del medio de transporte,  algunos puertos</t>
   </si>
   <si>
     <t xml:space="preserve">8 horas despúes del término de la descarga </t>
   </si>
   <si>
-    <t>Falta la la lista de puertos cercanos y los que no lo son , en caso de que se realice esa diferenciación</t>
-  </si>
-  <si>
     <t>2 días hábiles despúes del término de la descarga</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
     <t>Transmisiones manifiestos</t>
   </si>
   <si>
-    <t xml:space="preserve"> ?consultar con gonzalo</t>
-  </si>
-  <si>
     <t>Validar si el correo el diferente o igual al que se envia en documentos vinculados  de recepcion de vuelvo , si es el mismo definir la manera como reconocer uno de otro envío</t>
   </si>
   <si>
@@ -429,9 +420,6 @@
     <t>http://www.aduanet.gob.pe/cl-ad-itenvio/teledespachoConsultaITS02Alias?accion=consultarxOrdenOperador&amp;cadu=235&amp;tipmail=T&amp;fechproc=03/02/2018&amp;tipoper=4&amp;opera=9173&amp;wreg=01&amp;wanord=2018&amp;norden=052705</t>
   </si>
   <si>
-    <t>Dentro de las 12 horas  siguientes a su ocurrencia</t>
-  </si>
-  <si>
     <t>Validar con gonzalo, porque  en un documento de jimmy lei que decia que son 2 dias contados desde el dia siguiente del termino del embarque</t>
   </si>
   <si>
@@ -463,9 +451,6 @@
   </si>
   <si>
     <t>Ingreso y recepción de la mercancia desconsolidada  LCL  (anexo 7 - house)</t>
-  </si>
-  <si>
-    <t>?Consultar con Gonzalo si lo hacen  y  los plazos</t>
   </si>
   <si>
     <t>Registro de la Fecha y Hora del Término de Descarga  (anexo 4)</t>
@@ -864,6 +849,177 @@
   <si>
     <t>GHA.EXPO,
 EXPO</t>
+  </si>
+  <si>
+    <t>hora llegada</t>
+  </si>
+  <si>
+    <t>10am</t>
+  </si>
+  <si>
+    <t>rojo</t>
+  </si>
+  <si>
+    <t>naranja</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>se transmitio</t>
+  </si>
+  <si>
+    <t>&gt;8am</t>
+  </si>
+  <si>
+    <t>6am</t>
+  </si>
+  <si>
+    <t>&lt;6am</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasta antes de la llegada para puertos cercanos </t>
+  </si>
+  <si>
+    <t>SCL y BOG</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>7rojo}</t>
+  </si>
+  <si>
+    <t>4verde</t>
+  </si>
+  <si>
+    <t>5ambar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro de las 12 horas  siguientes a su ocurrencia del manifiesto de carga </t>
+  </si>
+  <si>
+    <t>10rojo</t>
+  </si>
+  <si>
+    <t>8ambar</t>
+  </si>
+  <si>
+    <t>antes de la salida del medio de transporte</t>
+  </si>
+  <si>
+    <t>antes del inicio de embarque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h antes </t>
+  </si>
+  <si>
+    <t>2h antes</t>
+  </si>
+  <si>
+    <t>1h antes</t>
+  </si>
+  <si>
+    <t>pasadas 12h</t>
+  </si>
+  <si>
+    <t>pasadas 5h</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Modo de tarea</t>
+  </si>
+  <si>
+    <t>Nombre de tarea</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Comienzo</t>
+  </si>
+  <si>
+    <t>Predecesoras</t>
+  </si>
+  <si>
+    <t>Nombres de los recursos</t>
+  </si>
+  <si>
+    <t>Programada automáticamente</t>
+  </si>
+  <si>
+    <t>Control Tablero Transmisiones</t>
+  </si>
+  <si>
+    <t>53 días</t>
+  </si>
+  <si>
+    <t>mié 21/02/18</t>
+  </si>
+  <si>
+    <t>vie 04/05/18</t>
+  </si>
+  <si>
+    <t>Programada manualmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sprint 1</t>
+  </si>
+  <si>
+    <t>10 días</t>
+  </si>
+  <si>
+    <t>mié 07/03/18</t>
+  </si>
+  <si>
+    <t>mar 20/03/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sprint 2</t>
+  </si>
+  <si>
+    <t>13 días</t>
+  </si>
+  <si>
+    <t>vie 09/03/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sprint 3</t>
+  </si>
+  <si>
+    <t>lun 12/03/18</t>
+  </si>
+  <si>
+    <t>vie 23/03/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sprint 4</t>
+  </si>
+  <si>
+    <t>lun 26/03/18</t>
+  </si>
+  <si>
+    <t>vie 06/04/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sprint 5</t>
+  </si>
+  <si>
+    <t>lun 09/04/18</t>
+  </si>
+  <si>
+    <t>vie 20/04/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sprint 6</t>
+  </si>
+  <si>
+    <t>lun 23/04/18</t>
   </si>
 </sst>
 </file>
@@ -873,7 +1029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,8 +1093,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,8 +1211,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1154,13 +1336,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1328,6 +1525,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1377,12 +1625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,51 +1633,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,6 +1647,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3414,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,59 +3645,61 @@
     <col min="15" max="15" width="16.7109375" style="17" customWidth="1"/>
     <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="81" t="s">
+    <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="65" t="s">
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="66"/>
-    </row>
-    <row r="2" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="84"/>
+      <c r="Q1" s="83"/>
+    </row>
+    <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="99"/>
       <c r="J2" s="33" t="s">
         <v>100</v>
       </c>
@@ -3515,27 +3724,42 @@
       <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="T2" t="s">
+        <v>272</v>
+      </c>
+      <c r="U2" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="V2" t="s">
+        <v>270</v>
+      </c>
+      <c r="W2" t="s">
+        <v>268</v>
+      </c>
+      <c r="X2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="86" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="71"/>
+        <v>115</v>
+      </c>
+      <c r="G3" s="88"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3562,22 +3786,37 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="70"/>
+      <c r="T3" t="s">
+        <v>276</v>
+      </c>
+      <c r="U3" t="s">
+        <v>275</v>
+      </c>
+      <c r="V3" t="s">
+        <v>274</v>
+      </c>
+      <c r="W3" t="s">
+        <v>269</v>
+      </c>
+      <c r="X3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="72"/>
+        <v>278</v>
+      </c>
+      <c r="G4" s="89"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>96</v>
@@ -3600,13 +3839,13 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="91"/>
+    <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="76"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3640,14 +3879,23 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="91"/>
+      <c r="U5">
+        <v>-2</v>
+      </c>
+      <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3681,14 +3929,21 @@
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="91"/>
+      <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="106">
+        <f>-1/2</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="76"/>
+        <v>137</v>
+      </c>
+      <c r="D7" s="93"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3722,26 +3977,35 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="91"/>
+      <c r="U7">
+        <v>11</v>
+      </c>
+      <c r="V7" t="s">
+        <v>280</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="76"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>111</v>
@@ -3763,26 +4027,38 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="91"/>
+      <c r="T8" t="s">
+        <v>282</v>
+      </c>
+      <c r="U8" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" t="s">
+        <v>281</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="D9" s="94"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>111</v>
@@ -3804,28 +4080,37 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="91"/>
+      <c r="T9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U9" t="s">
+        <v>283</v>
+      </c>
+      <c r="V9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="77"/>
       <c r="C10" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="79" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="3"/>
       <c r="I10" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -3835,24 +4120,30 @@
       <c r="O10" s="30"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="91"/>
+      <c r="U10" t="s">
+        <v>286</v>
+      </c>
+      <c r="V10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="94"/>
+        <v>202</v>
+      </c>
+      <c r="D11" s="80"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="3"/>
       <c r="I11" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -3862,24 +4153,30 @@
       <c r="O11" s="30"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="91"/>
+      <c r="U11" t="s">
+        <v>290</v>
+      </c>
+      <c r="V11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="3"/>
       <c r="I12" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -3889,24 +4186,33 @@
       <c r="O12" s="30"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="92"/>
+      <c r="U12" t="s">
+        <v>293</v>
+      </c>
+      <c r="V12" t="s">
+        <v>292</v>
+      </c>
+      <c r="W12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="3"/>
       <c r="I13" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -3916,25 +4222,31 @@
       <c r="O13" s="30"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>136</v>
+      <c r="U13" t="s">
+        <v>290</v>
+      </c>
+      <c r="V13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>132</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="95" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
@@ -3948,18 +4260,18 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="74"/>
+    <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="79"/>
+        <v>135</v>
+      </c>
+      <c r="D15" s="96"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
@@ -3973,18 +4285,18 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="75"/>
+    <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="80"/>
+        <v>136</v>
+      </c>
+      <c r="D16" s="97"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
@@ -3999,16 +4311,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="88" t="s">
+      <c r="A17" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="72" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4030,17 +4342,17 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
@@ -4056,9 +4368,9 @@
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="90"/>
+        <v>145</v>
+      </c>
+      <c r="B19" s="76"/>
       <c r="C19" s="37" t="s">
         <v>51</v>
       </c>
@@ -4069,7 +4381,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
@@ -4085,23 +4397,11 @@
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="I22" s="50" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4115,6 +4415,18 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4123,22 +4435,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="17" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="17"/>
+    <col min="5" max="5" width="15.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
@@ -4158,7 +4471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4172,7 +4485,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4186,7 +4499,7 @@
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4200,7 +4513,7 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4210,7 +4523,7 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4220,7 +4533,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4230,7 +4543,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4240,7 +4553,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4250,7 +4563,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4260,7 +4573,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4270,8 +4583,165 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+    </row>
+    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>313</v>
+      </c>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+    </row>
+    <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>322</v>
+      </c>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+    </row>
+    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4321,10 +4791,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +4814,7 @@
   <sheetData>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4440,15 +4910,15 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>4</v>
@@ -4456,34 +4926,34 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="O13" s="43" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4491,16 +4961,16 @@
         <v>67</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="R14" s="49" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="S14" s="49" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4508,16 +4978,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -4525,16 +4995,16 @@
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -4542,13 +5012,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="S17" s="2">
         <v>1234567</v>
@@ -4559,13 +5029,13 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S18" s="2">
         <v>1234567</v>
@@ -4580,19 +5050,19 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -4600,51 +5070,51 @@
         <v>67</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M22" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O22" s="45" t="s">
         <v>67</v>
       </c>
       <c r="P22" s="45" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R22" s="45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="S22" s="45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -4659,13 +5129,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H23" s="46">
         <v>1</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4676,13 +5146,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -4695,13 +5165,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H24" s="46">
         <v>2</v>
       </c>
       <c r="I24" s="47" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K24" s="2">
         <v>2</v>
@@ -4712,13 +5182,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -4735,13 +5205,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H25" s="46">
         <v>3</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K25" s="2">
         <v>3</v>
@@ -4752,13 +5222,13 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -4795,7 +5265,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -4804,7 +5274,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -4813,7 +5283,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -4840,7 +5310,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -4849,7 +5319,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -4858,7 +5328,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -4993,39 +5463,39 @@
   <sheetData>
     <row r="1" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5033,16 +5503,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -5050,16 +5520,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5067,16 +5537,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5084,16 +5554,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5101,16 +5571,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5118,16 +5588,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5135,16 +5605,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -5152,16 +5622,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5169,16 +5639,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5186,16 +5656,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5203,16 +5673,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5220,16 +5690,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5237,16 +5707,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5254,16 +5724,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5271,16 +5741,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -5288,16 +5758,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -5305,16 +5775,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5322,16 +5792,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -5339,16 +5809,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5356,16 +5826,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -5373,16 +5843,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -5390,16 +5860,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -6459,11 +6929,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6471,35 +6941,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="96"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="96"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="96"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="96"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="96"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="67" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -6507,49 +6977,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="96"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="96"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="96"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="96"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="96"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="96"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="96"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="96"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="96"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="67" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6557,17 +7027,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="96"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="96"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="96"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="67" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -6575,27 +7045,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="96"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="96"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="96"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="96"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="67" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -6603,15 +7073,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="96"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="96"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="96"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="42"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -6643,35 +7113,35 @@
     <row r="30" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D31" s="105"/>
       <c r="E31" s="59" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J31" s="60" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K31" s="59" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L31" s="59" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,13 +7150,13 @@
         <v>43104</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D32" s="56">
         <v>761</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F32" s="57">
         <v>201800000000359</v>
@@ -6703,13 +7173,13 @@
         <v>43104</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D33" s="56">
         <v>46</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F33" s="57">
         <v>201800000000361</v>
@@ -6726,13 +7196,13 @@
         <v>43104</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D34" s="56">
         <v>2393</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F34" s="57">
         <v>201800000000352</v>
@@ -6749,13 +7219,13 @@
         <v>43104</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D35" s="56">
         <v>143</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F35" s="57">
         <v>201800000000396</v>
@@ -6771,32 +7241,32 @@
     <row r="38" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="59" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C39" s="105" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D39" s="105"/>
       <c r="E39" s="59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H39" s="60" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J39" s="60" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K39" s="60" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6805,13 +7275,13 @@
         <v>43104</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D40" s="56">
         <v>761</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F40" s="57">
         <v>201800000000359</v>
@@ -6829,13 +7299,13 @@
         <v>43104</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D41" s="56">
         <v>46</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F41" s="57">
         <v>201800000000361</v>
@@ -6853,13 +7323,13 @@
         <v>43104</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D42" s="56">
         <v>2393</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F42" s="57">
         <v>201800000000352</v>
@@ -6877,13 +7347,13 @@
         <v>43104</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D43" s="56">
         <v>143</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F43" s="57">
         <v>201800000000396</v>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Transmisiones\repositorio\pyTransmisionesTalma\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Talma\Proyectos\ControlTransmisiones\Repositorio\pyTransmisionesTalma\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
-    <sheet name="Tareas" sheetId="9" r:id="rId2"/>
+    <sheet name="HU" sheetId="9" r:id="rId2"/>
     <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId3"/>
     <sheet name="Links" sheetId="6" r:id="rId4"/>
     <sheet name="Pantallas" sheetId="5" r:id="rId5"/>
@@ -22,7 +22,7 @@
     <sheet name="Aerolineas" sheetId="12" r:id="rId8"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="334">
   <si>
     <t>Responsable</t>
   </si>
@@ -221,15 +221,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Inicio</t>
-  </si>
-  <si>
-    <t>Fin</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -240,36 +231,6 @@
   </si>
   <si>
     <t>Campos</t>
-  </si>
-  <si>
-    <t>Creacion de tablas: T1, T2</t>
-  </si>
-  <si>
-    <t>Creacion del proyecto</t>
-  </si>
-  <si>
-    <t>DES</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>Consultar por los tiempos que faltan definir</t>
-  </si>
-  <si>
-    <t>GES</t>
-  </si>
-  <si>
-    <t>Tipo
-(BD/DES/GES)</t>
-  </si>
-  <si>
-    <t>Estado
-DOING/DONE</t>
-  </si>
-  <si>
-    <t>Tarea
-TO DO</t>
   </si>
   <si>
     <t>T3</t>
@@ -932,104 +893,167 @@
     <t>manual</t>
   </si>
   <si>
-    <t>Modo de tarea</t>
-  </si>
-  <si>
-    <t>Nombre de tarea</t>
-  </si>
-  <si>
-    <t>Duración</t>
-  </si>
-  <si>
-    <t>Comienzo</t>
-  </si>
-  <si>
-    <t>Predecesoras</t>
-  </si>
-  <si>
-    <t>Nombres de los recursos</t>
-  </si>
-  <si>
-    <t>Programada automáticamente</t>
-  </si>
-  <si>
-    <t>Control Tablero Transmisiones</t>
-  </si>
-  <si>
-    <t>53 días</t>
-  </si>
-  <si>
-    <t>mié 21/02/18</t>
-  </si>
-  <si>
-    <t>vie 04/05/18</t>
-  </si>
-  <si>
-    <t>Programada manualmente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sprint 1</t>
-  </si>
-  <si>
-    <t>10 días</t>
-  </si>
-  <si>
-    <t>mié 07/03/18</t>
-  </si>
-  <si>
-    <t>mar 20/03/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sprint 2</t>
-  </si>
-  <si>
-    <t>13 días</t>
-  </si>
-  <si>
-    <t>vie 09/03/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sprint 3</t>
-  </si>
-  <si>
-    <t>lun 12/03/18</t>
-  </si>
-  <si>
-    <t>vie 23/03/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sprint 4</t>
-  </si>
-  <si>
-    <t>lun 26/03/18</t>
-  </si>
-  <si>
-    <t>vie 06/04/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sprint 5</t>
-  </si>
-  <si>
-    <t>lun 09/04/18</t>
-  </si>
-  <si>
-    <t>vie 20/04/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sprint 6</t>
-  </si>
-  <si>
-    <t>lun 23/04/18</t>
+    <t>Servicio web acceso a datos</t>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>Control de acceso a usuarios</t>
+  </si>
+  <si>
+    <t>Estructurar tablero de control de transmisiones</t>
+  </si>
+  <si>
+    <t>Visualizar vuelos del GHA en el tablero</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Señalizar el envío de documentos vinculados </t>
+  </si>
+  <si>
+    <t>Importancia</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Estimación</t>
+  </si>
+  <si>
+    <t>Historia Usuario</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Como usuario de manifiestos quiero realizar las transmisiones a Aduanas por Teledespacho</t>
+  </si>
+  <si>
+    <t>Como usuario Impo quiero visualizar el listado de mis vuelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario Impo quiero visualizar mis obligaciones por vuelo </t>
+  </si>
+  <si>
+    <t>Como usuario Impo quiero visualizar el listado de mis guías por vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Impo quiero visualizar mis obligaciones por guías de un vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Impo quiero visualizar el avance de mis obligaciones por vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Impo quiero visualizar el avance de mis obligaciones por guia de un vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Impo quiero visualizar el estado de mis obligaciones a través de mis indicadores</t>
+  </si>
+  <si>
+    <t>Como GHA quiero visualizar el listado de mis vuelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como GHA quiero visualizar mis obligaciones </t>
+  </si>
+  <si>
+    <t>Como GHA quiero visualizar el avance de mis obligaciones</t>
+  </si>
+  <si>
+    <t>Como GHA quiero visualizar el estado de mis obligaciones a través de mis indicadores</t>
+  </si>
+  <si>
+    <t>Como GHA quiero capturar y almacenar el screen del "registro de llegada de un vuelo"</t>
+  </si>
+  <si>
+    <t>Como GHA quiero capturar y registrar el ingreso de la fecha de llegada de un vuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como GHA quiero capturar y registrar el ingreso de la fecha del termino de descarga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como GHA quiero capturar y almacenar el screen del "registro de la fecha de termino de descarga" </t>
+  </si>
+  <si>
+    <t>Como GHA quiero capturar y registrar el ingreso del termino de embarque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como GHA quiero capturar y registrar el ingreso de la fecha de autorización de la carga  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como GHA quiero capturar y almacenar el screen del "registro de autorización de la carga" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como GHA quiero capturar y almacenar el screen del "registro de término de embarque" </t>
+  </si>
+  <si>
+    <t>Como usuario Impo quiero asignar un responsable por vuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario Impo quiero reasignar un responsable por vuelo </t>
+  </si>
+  <si>
+    <t>Como usuario Expo quiero visualizar el listado de mis vuelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario Expo quiero visualizar mis obligaciones por vuelo </t>
+  </si>
+  <si>
+    <t>Como usuario Expo quiero visualizar el listado de mis guías por vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Expo quiero visualizar mis obligaciones por guías de un vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Expo quiero visualizar el avance de mis obligaciones por vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Expo quiero visualizar el avance de mis obligaciones por guia de un vuelo</t>
+  </si>
+  <si>
+    <t>Como usuario Expo quiero visualizar el estado de mis obligaciones a través de mis indicadores</t>
+  </si>
+  <si>
+    <t>Como usuario Expo quiero asignar un responsable por vuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario Expo quiero reasignar un responsable por vuelo </t>
+  </si>
+  <si>
+    <t>Release 1</t>
+  </si>
+  <si>
+    <t>Realizar pruebas funcionales del Release 1</t>
+  </si>
+  <si>
+    <t>Realizar pruebas funcionales del Release 2</t>
+  </si>
+  <si>
+    <t>Release 2</t>
+  </si>
+  <si>
+    <t>Release 3</t>
+  </si>
+  <si>
+    <t>Realizar pruebas funcionales del Release 3</t>
+  </si>
+  <si>
+    <t>Como usuario quiero tener un control de acceso de usuario al tablero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,22 +1117,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF363636"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,20 +1221,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFE3E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1336,28 +1334,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB1BBCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB1BBCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1407,13 +1390,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1525,12 +1502,100 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,93 +1611,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,16 +1626,14 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3637,11 +3613,11 @@
     <col min="6" max="6" width="28.140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="31" customWidth="1"/>
-    <col min="11" max="12" width="11.85546875" style="31" customWidth="1"/>
-    <col min="13" max="13" width="16" style="32" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="71.140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="29" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="16" style="30" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" style="30" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" style="17" customWidth="1"/>
     <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -3650,232 +3626,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="83"/>
+      <c r="I1" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>108</v>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="U2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="V2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="W2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="X2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="88"/>
+      <c r="F3" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="70"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="29">
+      <c r="I3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="27">
         <v>3</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <v>2</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>99</v>
+      <c r="M3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="T3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="U3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="V3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="W3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="X3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="89"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="71"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="29">
+      <c r="I4" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="27">
         <v>2</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <v>0</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>99</v>
+      <c r="M4" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="93"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="29">
+        <v>90</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="27">
         <v>2</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <v>0</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>99</v>
+      <c r="M5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -3886,94 +3862,94 @@
         <v>-1</v>
       </c>
       <c r="W5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="93"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="75"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="29">
+      <c r="I6" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="27">
         <v>1</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="29" t="s">
+      <c r="L6" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>99</v>
+      <c r="M6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="U6">
         <v>-1</v>
       </c>
-      <c r="V6" s="106">
+      <c r="V6" s="63">
         <f>-1/2</f>
         <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="93"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="75"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="26"/>
+      <c r="F7" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="24"/>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="I7" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="27">
         <v>-4</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <v>-6</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>99</v>
+      <c r="M7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -3981,427 +3957,439 @@
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="W7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="26"/>
+      <c r="F8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="29">
+      <c r="I8" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="27">
         <v>-6</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <v>-8</v>
       </c>
-      <c r="M8" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>99</v>
+      <c r="M8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="T8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="U8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="V8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="W8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="94"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="76"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="26"/>
+      <c r="F9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="24"/>
       <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="I9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="27">
         <v>-32</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <v>-48</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>99</v>
+      <c r="M9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="T9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="U9" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="V9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="79" t="s">
+      <c r="A10" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="92" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="26"/>
+      <c r="F10" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
+      <c r="I10" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="U10" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="V10" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="80"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="93"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="26"/>
+      <c r="F11" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
+      <c r="I11" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="U11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="V11" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="26"/>
+      <c r="F12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="24"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
+      <c r="I12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="U12" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="V12" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="W12" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="26"/>
+      <c r="F13" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
+      <c r="I13" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="U13" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="V13" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="95" t="s">
+      <c r="A14" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="77" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>131</v>
+      <c r="F14" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="96"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="78"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="97"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="79"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>131</v>
+      <c r="F16" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="85" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="38" t="s">
+      <c r="A18" s="95"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>129</v>
+      <c r="F18" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="50" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>130</v>
+      <c r="F19" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="I22" s="50" t="s">
-        <v>156</v>
+      <c r="I22" s="48" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4415,18 +4403,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4435,309 +4411,625 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="5.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B1" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="106">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B2" s="107" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="106">
+        <v>10</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="106"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="106">
+        <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B3" s="107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="106">
+        <v>20</v>
+      </c>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="106"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="106">
+        <f t="shared" ref="A4:A44" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B4" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="106">
+        <v>30</v>
+      </c>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="106"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="106">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B5" s="107" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="106">
+        <v>40</v>
+      </c>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="106"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="106">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B6" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="106">
+        <v>50</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="106"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="107" t="s">
+      <c r="B11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="107" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="44">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="44">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="44">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D16" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="109" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="109" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" s="109" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="109" t="s">
-        <v>310</v>
-      </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="109" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>312</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="109" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-    </row>
-    <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>308</v>
-      </c>
-      <c r="D19" s="109" t="s">
-        <v>315</v>
-      </c>
-      <c r="E19" s="109" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="108" t="s">
         <v>316</v>
       </c>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B20" s="109" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="44">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C20" s="109" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" s="109" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="44">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="44">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="44">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="109" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C21" s="109" t="s">
-        <v>308</v>
-      </c>
-      <c r="D21" s="109" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="44">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="109" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="44">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109" t="s">
-        <v>306</v>
-      </c>
-      <c r="B22" s="109" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="44">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="109" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="109" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E22" s="109" t="s">
-        <v>305</v>
-      </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="44">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="108" t="s">
+        <v>325</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4783,18 +5075,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4813,8 +5105,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
-        <v>125</v>
+      <c r="B28" s="39" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4848,16 +5140,16 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
         <v>61</v>
@@ -4865,13 +5157,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -4891,13 +5183,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -4905,72 +5197,72 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>138</v>
+      <c r="A9" s="41" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="O13" s="43" t="s">
-        <v>171</v>
+      <c r="O13" s="41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O14" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q14" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="S14" s="49" t="s">
-        <v>174</v>
+      <c r="O14" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="R14" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -4978,16 +5270,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -4995,16 +5287,16 @@
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -5012,13 +5304,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="S17" s="2">
         <v>1234567</v>
@@ -5029,113 +5321,113 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="S18" s="2">
         <v>1234567</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="43" t="s">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="Q22" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="R22" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="S22" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="O21" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="45" t="s">
+      <c r="T22" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="O22" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="R22" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="S22" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="T22" s="45" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="101">
+      <c r="A23" s="100">
         <v>1</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="E23" s="21">
+      <c r="C23" s="102"/>
+      <c r="E23" s="19">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="46">
+        <v>140</v>
+      </c>
+      <c r="H23" s="44">
         <v>1</v>
       </c>
-      <c r="I23" s="47" t="s">
-        <v>153</v>
+      <c r="I23" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5146,32 +5438,32 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="104"/>
-      <c r="E24" s="21">
+      <c r="A24" s="100"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="103"/>
+      <c r="E24" s="19">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="46">
+        <v>131</v>
+      </c>
+      <c r="H24" s="44">
         <v>2</v>
       </c>
-      <c r="I24" s="47" t="s">
-        <v>154</v>
+      <c r="I24" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="K24" s="2">
         <v>2</v>
@@ -5182,13 +5474,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -5197,21 +5489,21 @@
       <c r="A25" s="13">
         <v>2</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="46">
+        <v>133</v>
+      </c>
+      <c r="H25" s="44">
         <v>3</v>
       </c>
-      <c r="I25" s="47" t="s">
-        <v>155</v>
+      <c r="I25" s="45" t="s">
+        <v>143</v>
       </c>
       <c r="K25" s="2">
         <v>3</v>
@@ -5222,13 +5514,13 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -5237,8 +5529,8 @@
       <c r="A26" s="13">
         <v>3</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>92</v>
+      <c r="B26" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -5246,7 +5538,7 @@
       <c r="A27" s="13">
         <v>4</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="2"/>
@@ -5255,7 +5547,7 @@
       <c r="A28" s="13">
         <v>5</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="2"/>
@@ -5264,8 +5556,8 @@
       <c r="A29" s="13">
         <v>6</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>134</v>
+      <c r="B29" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -5273,8 +5565,8 @@
       <c r="A30" s="13">
         <v>7</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>122</v>
+      <c r="B30" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -5282,8 +5574,8 @@
       <c r="A31" s="13">
         <v>8</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>123</v>
+      <c r="B31" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -5291,7 +5583,7 @@
       <c r="A32" s="13">
         <v>9</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="2"/>
@@ -5300,7 +5592,7 @@
       <c r="A33" s="13">
         <v>10</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2"/>
@@ -5309,8 +5601,8 @@
       <c r="A34" s="13">
         <v>11</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>133</v>
+      <c r="B34" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -5318,8 +5610,8 @@
       <c r="A35" s="13">
         <v>12</v>
       </c>
-      <c r="B35" s="48" t="s">
-        <v>135</v>
+      <c r="B35" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -5327,8 +5619,8 @@
       <c r="A36" s="13">
         <v>13</v>
       </c>
-      <c r="B36" s="48" t="s">
-        <v>136</v>
+      <c r="B36" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -5336,7 +5628,7 @@
       <c r="A37" s="13">
         <v>14</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2"/>
@@ -5345,7 +5637,7 @@
       <c r="A38" s="13">
         <v>15</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2"/>
@@ -5354,7 +5646,7 @@
       <c r="A39" s="13">
         <v>16</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="46" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="2"/>
@@ -5389,19 +5681,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
         <v>61</v>
@@ -5409,16 +5701,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
         <v>60</v>
@@ -5426,7 +5718,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -5434,7 +5726,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5461,1423 +5753,1423 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>205</v>
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>207</v>
+      <c r="A2" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>209</v>
+        <v>196</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>211</v>
+      <c r="A3" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>231</v>
+      <c r="A4" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>213</v>
+      <c r="A5" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>215</v>
+        <v>202</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>161</v>
+      <c r="A6" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="21" t="s">
         <v>215</v>
       </c>
+      <c r="C6" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>221</v>
+      <c r="A7" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>217</v>
+      <c r="A8" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>223</v>
+      <c r="A9" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>219</v>
+      <c r="A10" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>225</v>
+      <c r="A11" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>229</v>
+      <c r="A12" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>163</v>
+      <c r="A13" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>240</v>
+      <c r="A14" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>233</v>
+      <c r="A15" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>235</v>
+        <v>222</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>237</v>
+      <c r="A16" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>235</v>
+        <v>226</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>242</v>
+      <c r="A17" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>167</v>
+      <c r="A18" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>244</v>
+      <c r="A19" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>246</v>
+        <v>233</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>248</v>
+      <c r="A20" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>252</v>
+      <c r="A21" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>260</v>
+      <c r="A22" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>256</v>
+        <v>249</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>254</v>
+      <c r="A23" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>256</v>
+        <v>243</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>258</v>
+      <c r="A24" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="21"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="21"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="21"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="21"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="21"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="21"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="21"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="21"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="21"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="21"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="21"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="21"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="21"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="21"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="21"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="21"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="21"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="21"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="21"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="21"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="21"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="21"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="21"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="21"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="21"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="21"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="21"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="21"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="21"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="21"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="21"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="21"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="21"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="21"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="21"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="21"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="21"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="21"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="21"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="21"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="21"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="21"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="21"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="21"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="21"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="21"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="21"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="21"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="21"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="21"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="21"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="21"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="21"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="21"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="21"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="21"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="21"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="62"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="61"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="21"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="21"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="21"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="21"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
+      <c r="A94" s="19"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="21"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
+      <c r="A95" s="19"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="21"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
+      <c r="A96" s="19"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="21"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="21"/>
+      <c r="C97" s="19"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
+      <c r="A98" s="19"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="21"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="21"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
+      <c r="A100" s="19"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="21"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
+      <c r="A101" s="19"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="21"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="21"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
+      <c r="A103" s="19"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="21"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="21"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
+      <c r="A105" s="19"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="21"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
+      <c r="A106" s="19"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="21"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
+      <c r="A107" s="19"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="21"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
+      <c r="A108" s="19"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="21"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
+      <c r="A109" s="19"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="21"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="21"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
+      <c r="A111" s="19"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="21"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
+      <c r="A112" s="19"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="21"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="21"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
+      <c r="A114" s="19"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="21"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
+      <c r="A115" s="19"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="21"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
+      <c r="A116" s="19"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="21"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="21"/>
+      <c r="A117" s="19"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="21"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="21"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="21"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
+      <c r="A119" s="19"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="21"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="21"/>
+      <c r="A120" s="19"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="21"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="21"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="21"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="21"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="21"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="21"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="21"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="21"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="21"/>
+      <c r="C124" s="19"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="21"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="21"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="21"/>
+      <c r="C126" s="19"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="21"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="21"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="21"/>
+      <c r="A128" s="19"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="21"/>
+      <c r="C128" s="19"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="21"/>
+      <c r="A129" s="19"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="21"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="21"/>
+      <c r="A130" s="19"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="21"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="21"/>
+      <c r="A131" s="19"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="21"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="21"/>
+      <c r="A132" s="19"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="21"/>
+      <c r="C132" s="19"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="21"/>
+      <c r="A133" s="19"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="21"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="21"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="21"/>
+      <c r="C134" s="19"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="21"/>
+      <c r="A135" s="19"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="21"/>
+      <c r="C135" s="19"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="21"/>
+      <c r="A136" s="19"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="21"/>
+      <c r="C136" s="19"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -6929,11 +7221,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6941,35 +7233,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -6977,49 +7269,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="67"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="67"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="95" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7027,17 +7319,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="67"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="67" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="95" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7045,27 +7337,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="67"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="67"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="67" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="95" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7073,16 +7365,16 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="67"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="67"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
@@ -7104,269 +7396,269 @@
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
+    <row r="30" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="104"/>
+      <c r="E31" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="59" t="s">
+    </row>
+    <row r="32" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="54">
+        <v>761</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="55">
+        <v>201800000000359</v>
+      </c>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="54">
+        <v>46</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="55">
+        <v>201800000000361</v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="34" spans="1:12" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="54">
+        <v>2393</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="55">
+        <v>201800000000352</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+    </row>
+    <row r="35" spans="1:12" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="54">
+        <v>143</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="55">
+        <v>201800000000396</v>
+      </c>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="104"/>
+      <c r="E39" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="L31" s="59" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55">
+    </row>
+    <row r="40" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53">
         <v>43104</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="56">
+      <c r="C40" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="54">
         <v>761</v>
       </c>
-      <c r="E32" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="57">
+      <c r="E40" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="55">
         <v>201800000000359</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-    </row>
-    <row r="33" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="55">
+      <c r="G40" s="54">
+        <v>23</v>
+      </c>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+    </row>
+    <row r="41" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="53">
         <v>43104</v>
       </c>
-      <c r="C33" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="56">
+      <c r="C41" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="54">
         <v>46</v>
       </c>
-      <c r="E33" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="57">
+      <c r="E41" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="55">
         <v>201800000000361</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-    </row>
-    <row r="34" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="55">
+      <c r="G41" s="54">
+        <v>25</v>
+      </c>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+    </row>
+    <row r="42" spans="1:12" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="53">
         <v>43104</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="56">
+      <c r="C42" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="54">
         <v>2393</v>
       </c>
-      <c r="E34" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="57">
+      <c r="E42" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="55">
         <v>201800000000352</v>
       </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-    </row>
-    <row r="35" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55">
+      <c r="G42" s="54">
+        <v>27</v>
+      </c>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+    </row>
+    <row r="43" spans="1:12" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="53">
         <v>43104</v>
       </c>
-      <c r="C35" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="56">
+      <c r="C43" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="54">
         <v>143</v>
       </c>
-      <c r="E35" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="57">
+      <c r="E43" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="55">
         <v>201800000000396</v>
       </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-    </row>
-    <row r="36" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" s="53" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="J39" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="K39" s="60" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55">
-        <v>43104</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="56">
-        <v>761</v>
-      </c>
-      <c r="E40" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="57">
-        <v>201800000000359</v>
-      </c>
-      <c r="G40" s="56">
-        <v>23</v>
-      </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-    </row>
-    <row r="41" spans="1:12" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="55">
-        <v>43104</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="56">
-        <v>46</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="57">
-        <v>201800000000361</v>
-      </c>
-      <c r="G41" s="56">
-        <v>25</v>
-      </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-    </row>
-    <row r="42" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="55">
-        <v>43104</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="56">
-        <v>2393</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="57">
-        <v>201800000000352</v>
-      </c>
-      <c r="G42" s="56">
-        <v>27</v>
-      </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-    </row>
-    <row r="43" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55">
-        <v>43104</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="56">
-        <v>143</v>
-      </c>
-      <c r="E43" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" s="57">
-        <v>201800000000396</v>
-      </c>
-      <c r="G43" s="56">
+      <c r="G43" s="54">
         <v>29</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-    </row>
-    <row r="44" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+    </row>
+    <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C31:D31"/>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Talma\Proyectos\ControlTransmisiones\Repositorio\pyTransmisionesTalma\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Transmisiones\repositorio\pyTransmisionesTalma\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Aerolineas" sheetId="12" r:id="rId8"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1049,9 +1049,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1338,7 +1338,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1503,6 +1503,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,12 +1611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,51 +1619,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1626,14 +1634,6 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3599,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,56 +3626,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="64" t="s">
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="65"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="83"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="102"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3717,25 +3717,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3779,15 +3779,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3816,12 +3816,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3866,12 +3866,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3914,12 +3914,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3964,12 +3964,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4017,12 +4017,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4067,14 +4067,14 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="82" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4104,12 +4104,12 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4137,12 +4137,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4173,12 +4173,12 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="91"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4206,16 +4206,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="93" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="98" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4237,12 +4237,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="78"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4262,12 +4262,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4287,16 +4287,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="77" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="75" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4318,12 +4318,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="A19" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4378,18 +4378,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4403,6 +4391,18 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4413,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,108 +4426,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="64" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="106">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="65">
         <v>10</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="106">
+      <c r="A3" s="65">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="65">
         <v>20</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="F3" s="106"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="106">
+      <c r="A4" s="65">
         <f t="shared" ref="A4:A44" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="65">
         <v>30</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="106">
+      <c r="A5" s="65">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="65">
         <v>40</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="106">
+      <c r="A6" s="65">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="65">
         <v>50</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
@@ -4841,7 +4841,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="67" t="s">
         <v>316</v>
       </c>
       <c r="C30" s="19"/>
@@ -4984,7 +4984,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="108" t="s">
+      <c r="B41" s="67" t="s">
         <v>325</v>
       </c>
       <c r="C41" s="19"/>
@@ -5023,7 +5023,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="67" t="s">
         <v>331</v>
       </c>
       <c r="C44" s="19"/>
@@ -5410,13 +5410,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="100">
+      <c r="A23" s="104">
         <v>1</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="102"/>
+      <c r="C23" s="106"/>
       <c r="E23" s="19">
         <v>1</v>
       </c>
@@ -5450,9 +5450,9 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="103"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="107"/>
       <c r="E24" s="19">
         <v>2</v>
       </c>
@@ -7221,11 +7221,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -7233,35 +7233,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="95"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="95"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="95"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="95"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="95"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -7269,49 +7269,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="95"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="95"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="95"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="95"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="95"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="95"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="95"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="95"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="95"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="95"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="70" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7319,17 +7319,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="95"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="95"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="95"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="70" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7337,27 +7337,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="95"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="95"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="70" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7365,15 +7365,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="95"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="95"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -7407,10 +7407,10 @@
       <c r="B31" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="104"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="57" t="s">
         <v>169</v>
       </c>
@@ -7535,10 +7535,10 @@
       <c r="B39" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="104"/>
+      <c r="D39" s="108"/>
       <c r="E39" s="57" t="s">
         <v>183</v>
       </c>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="346">
   <si>
     <t>Responsable</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Transmisiones manifiestos</t>
   </si>
   <si>
-    <t>Validar si el correo el diferente o igual al que se envia en documentos vinculados  de recepcion de vuelvo , si es el mismo definir la manera como reconocer uno de otro envío</t>
-  </si>
-  <si>
     <t>Término de embarque</t>
   </si>
   <si>
@@ -845,9 +842,6 @@
     <t xml:space="preserve">Hasta antes de la llegada para puertos cercanos </t>
   </si>
   <si>
-    <t>SCL y BOG</t>
-  </si>
-  <si>
     <t>&gt;10</t>
   </si>
   <si>
@@ -1044,6 +1038,48 @@
   </si>
   <si>
     <t>Como usuario quiero tener un control de acceso de usuario al tablero</t>
+  </si>
+  <si>
+    <t>CLSCL y COBOG</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Fecha y hora del Inicio del Embarque</t>
+  </si>
+  <si>
+    <t>Fecha y hora Termino de Embarque</t>
+  </si>
+  <si>
+    <t>Fecha y hora de salida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13/03/2018  13:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13/03/2018  16:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14/03/2018  05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14/03/2018  14:11</t>
+  </si>
+  <si>
+    <t>Envío Manual</t>
+  </si>
+  <si>
+    <t>Actualmente este proceso  es manual, por lo que este proceso no se mostrará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorizacion de la carga </t>
+  </si>
+  <si>
+    <t>Fecha y hora de transmision</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1376,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,6 +1669,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1785,8 +1824,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>589648</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65773</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>532929</xdr:rowOff>
     </xdr:to>
@@ -3599,8 +3638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,7 +3666,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>0</v>
@@ -3701,24 +3740,24 @@
         <v>15</v>
       </c>
       <c r="T2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U2" t="s">
+        <v>258</v>
+      </c>
+      <c r="V2" t="s">
+        <v>257</v>
+      </c>
+      <c r="W2" t="s">
+        <v>255</v>
+      </c>
+      <c r="X2" t="s">
         <v>260</v>
-      </c>
-      <c r="U2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V2" t="s">
-        <v>258</v>
-      </c>
-      <c r="W2" t="s">
-        <v>256</v>
-      </c>
-      <c r="X2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>17</v>
@@ -3763,19 +3802,19 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="T3" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" t="s">
+        <v>262</v>
+      </c>
+      <c r="V3" t="s">
+        <v>261</v>
+      </c>
+      <c r="W3" t="s">
+        <v>256</v>
+      </c>
+      <c r="X3" t="s">
         <v>264</v>
-      </c>
-      <c r="U3" t="s">
-        <v>263</v>
-      </c>
-      <c r="V3" t="s">
-        <v>262</v>
-      </c>
-      <c r="W3" t="s">
-        <v>257</v>
-      </c>
-      <c r="X3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -3785,14 +3824,14 @@
       <c r="D4" s="96"/>
       <c r="E4" s="90"/>
       <c r="F4" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" s="92"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>84</v>
@@ -3862,7 +3901,7 @@
         <v>-1</v>
       </c>
       <c r="W5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -3917,7 +3956,7 @@
       <c r="A7" s="72"/>
       <c r="B7" s="80"/>
       <c r="C7" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="3" t="s">
@@ -3957,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W7">
         <v>10</v>
@@ -3981,7 +4020,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>99</v>
@@ -4004,13 +4043,13 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="T8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="V8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="W8">
         <v>10</v>
@@ -4020,7 +4059,7 @@
       <c r="A9" s="73"/>
       <c r="B9" s="80"/>
       <c r="C9" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="3" t="s">
@@ -4057,22 +4096,22 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="T9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="V9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="82" t="s">
         <v>21</v>
@@ -4081,12 +4120,12 @@
         <v>9</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="3"/>
       <c r="I10" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -4097,29 +4136,29 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="U10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="80"/>
       <c r="C11" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="3"/>
       <c r="I11" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -4130,10 +4169,10 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="U11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="V11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,14 +4186,16 @@
         <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="3"/>
       <c r="I12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>333</v>
+      </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -4163,16 +4204,16 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="U12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="V12" t="s">
+        <v>278</v>
+      </c>
+      <c r="W12" t="s">
         <v>280</v>
       </c>
-      <c r="W12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" s="81"/>
       <c r="C13" s="33" t="s">
@@ -4180,17 +4221,19 @@
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="3"/>
       <c r="I13" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="27"/>
+        <v>343</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>334</v>
+      </c>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -4199,21 +4242,21 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="U13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="V13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>120</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>121</v>
       </c>
       <c r="D14" s="98" t="s">
         <v>20</v>
@@ -4222,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
@@ -4240,7 +4283,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="94"/>
       <c r="C15" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="99"/>
       <c r="E15" s="3" t="s">
@@ -4265,14 +4308,14 @@
       <c r="A16" s="73"/>
       <c r="B16" s="95"/>
       <c r="C16" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
@@ -4288,7 +4331,7 @@
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="77" t="s">
         <v>3</v>
@@ -4328,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
@@ -4344,7 +4387,7 @@
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="79"/>
       <c r="C19" s="35" t="s">
@@ -4357,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
@@ -4373,7 +4416,7 @@
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="I22" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4430,19 +4473,19 @@
         <v>64</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C1" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>290</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,14 +4493,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C2" s="65">
         <v>10</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="65"/>
     </row>
@@ -4467,14 +4510,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="65">
         <v>20</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="65"/>
     </row>
@@ -4484,14 +4527,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C4" s="65">
         <v>30</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F4" s="65"/>
     </row>
@@ -4501,14 +4544,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C5" s="65">
         <v>40</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F5" s="65"/>
     </row>
@@ -4518,14 +4561,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="65">
         <v>50</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F6" s="65"/>
     </row>
@@ -4535,12 +4578,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -4550,12 +4593,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F8" s="19"/>
     </row>
@@ -4565,12 +4608,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F9" s="19"/>
     </row>
@@ -4580,12 +4623,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F10" s="19"/>
     </row>
@@ -4595,7 +4638,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -4608,7 +4651,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -4621,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -4634,7 +4677,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4647,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4660,7 +4703,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4673,7 +4716,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4686,7 +4729,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4699,7 +4742,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4712,7 +4755,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4725,7 +4768,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -4738,7 +4781,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -4751,7 +4794,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -4764,7 +4807,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -4777,7 +4820,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4790,7 +4833,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4803,7 +4846,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -4816,7 +4859,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4829,7 +4872,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4842,7 +4885,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4855,7 +4898,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="19"/>
@@ -4868,7 +4911,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="19"/>
@@ -4881,7 +4924,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="19"/>
@@ -4894,7 +4937,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="19"/>
@@ -4907,7 +4950,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="19"/>
@@ -4920,7 +4963,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="19"/>
@@ -4933,7 +4976,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="19"/>
@@ -4946,7 +4989,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -4959,7 +5002,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -4972,7 +5015,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -4985,7 +5028,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -4998,7 +5041,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -5011,7 +5054,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -5024,7 +5067,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -5106,7 +5149,7 @@
   <sheetData>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5202,15 +5245,15 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>128</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>4</v>
@@ -5218,34 +5261,34 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="O13" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5253,16 +5296,16 @@
         <v>64</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="R14" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="R14" s="47" t="s">
+      <c r="S14" s="47" t="s">
         <v>161</v>
-      </c>
-      <c r="S14" s="47" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5270,16 +5313,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5287,16 +5330,16 @@
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -5304,13 +5347,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S17" s="2">
         <v>1234567</v>
@@ -5321,13 +5364,13 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S18" s="2">
         <v>1234567</v>
@@ -5342,19 +5385,19 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="H21" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="41" t="s">
-        <v>137</v>
-      </c>
       <c r="K21" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -5362,51 +5405,51 @@
         <v>64</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>138</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>139</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="P22" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="Q22" s="43" t="s">
-        <v>149</v>
-      </c>
       <c r="R22" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="S22" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="S22" s="43" t="s">
+      <c r="T22" s="43" t="s">
         <v>157</v>
-      </c>
-      <c r="T22" s="43" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -5421,13 +5464,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="44">
         <v>1</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5438,13 +5481,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -5457,13 +5500,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="44">
         <v>2</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="2">
         <v>2</v>
@@ -5474,13 +5517,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="R24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -5497,13 +5540,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H25" s="44">
         <v>3</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K25" s="2">
         <v>3</v>
@@ -5514,13 +5557,13 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="R25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -5557,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -5566,7 +5609,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -5575,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -5602,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -5611,7 +5654,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -5620,7 +5663,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -5755,39 +5798,39 @@
   <sheetData>
     <row r="1" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5795,16 +5838,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -5812,16 +5855,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C4" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5829,16 +5872,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5846,16 +5889,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5863,16 +5906,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C7" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5880,16 +5923,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5897,16 +5940,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C9" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -5914,16 +5957,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5931,16 +5974,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5948,16 +5991,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C12" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5965,16 +6008,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5982,16 +6025,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C14" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5999,16 +6042,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6016,16 +6059,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C16" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6033,16 +6076,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C17" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6050,16 +6093,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6067,16 +6110,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6084,16 +6127,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6101,16 +6144,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C21" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6118,16 +6161,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C22" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6135,16 +6178,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6152,16 +6195,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C24" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -7186,10 +7229,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7197,11 +7240,11 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
@@ -7405,35 +7448,35 @@
     <row r="30" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="108" t="s">
         <v>167</v>
-      </c>
-      <c r="C31" s="108" t="s">
-        <v>168</v>
       </c>
       <c r="D31" s="108"/>
       <c r="E31" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="G31" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="H31" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="I31" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="57" t="s">
-        <v>173</v>
-      </c>
       <c r="J31" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K31" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L31" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7442,13 +7485,13 @@
         <v>43104</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="54">
         <v>761</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F32" s="55">
         <v>201800000000359</v>
@@ -7465,13 +7508,13 @@
         <v>43104</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="54">
         <v>46</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="55">
         <v>201800000000361</v>
@@ -7488,13 +7531,13 @@
         <v>43104</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="54">
         <v>2393</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F34" s="55">
         <v>201800000000352</v>
@@ -7511,13 +7554,13 @@
         <v>43104</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="54">
         <v>143</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F35" s="55">
         <v>201800000000396</v>
@@ -7533,32 +7576,32 @@
     <row r="38" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="108"/>
       <c r="E39" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="58" t="s">
+      <c r="H39" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="I39" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="I39" s="58" t="s">
+      <c r="J39" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="J39" s="58" t="s">
-        <v>187</v>
-      </c>
       <c r="K39" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7567,13 +7610,13 @@
         <v>43104</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D40" s="54">
         <v>761</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="55">
         <v>201800000000359</v>
@@ -7591,13 +7634,13 @@
         <v>43104</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" s="54">
         <v>46</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="55">
         <v>201800000000361</v>
@@ -7615,13 +7658,13 @@
         <v>43104</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="54">
         <v>2393</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="55">
         <v>201800000000352</v>
@@ -7639,13 +7682,13 @@
         <v>43104</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" s="54">
         <v>143</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43" s="55">
         <v>201800000000396</v>
@@ -7659,6 +7702,78 @@
       <c r="K43" s="56"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E50" t="s">
+        <v>335</v>
+      </c>
+      <c r="F50" t="s">
+        <v>336</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="H50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E51" s="109">
+        <v>43172.041666666664</v>
+      </c>
+      <c r="F51" s="109">
+        <v>43172.0625</v>
+      </c>
+      <c r="G51" s="109">
+        <v>43172.076388888891</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="109">
+        <v>43172.555555555555</v>
+      </c>
+      <c r="F52" s="109">
+        <v>43172.565972222219</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E53" s="109">
+        <v>43172.645833333336</v>
+      </c>
+      <c r="F53" s="109">
+        <v>43172.666666666664</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E54" s="109">
+        <v>43173.166666666664</v>
+      </c>
+      <c r="F54" s="109">
+        <v>43173.194444444445</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E55" s="109">
+        <v>43173.541666666664</v>
+      </c>
+      <c r="F55" s="109">
+        <v>43173.552083333336</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C31:D31"/>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="362">
   <si>
     <t>Responsable</t>
   </si>
@@ -1080,6 +1080,54 @@
   </si>
   <si>
     <t>Fecha y hora de transmision</t>
+  </si>
+  <si>
+    <t>Vuelo 1</t>
+  </si>
+  <si>
+    <t>Vuelo2</t>
+  </si>
+  <si>
+    <t>Vuelo 3</t>
+  </si>
+  <si>
+    <t>Vuelo 4</t>
+  </si>
+  <si>
+    <t>Vuelo 5</t>
+  </si>
+  <si>
+    <t>Anexo6</t>
+  </si>
+  <si>
+    <t>Anexo5</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>CierreVuelo</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Transmitio</t>
+  </si>
+  <si>
+    <t>Plomo</t>
   </si>
 </sst>
 </file>
@@ -1547,12 +1595,102 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,93 +1706,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,9 +1720,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1703,7 +1751,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3638,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,56 +3713,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="85" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="86"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="102"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3756,25 +3804,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="73" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="91"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3818,15 +3866,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="90"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="92"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3855,12 +3903,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3905,12 +3953,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3953,12 +4001,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4003,12 +4051,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="96"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4056,12 +4104,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="97"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4106,14 +4154,14 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="97" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4143,12 +4191,12 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4176,12 +4224,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4214,12 +4262,12 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="3" t="s">
         <v>342</v>
       </c>
@@ -4249,16 +4297,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="77" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="82" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4280,12 +4328,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4305,12 +4353,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="100"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4330,16 +4378,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="92" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="90" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4361,12 +4409,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4389,7 +4437,7 @@
       <c r="A19" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4421,6 +4469,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4434,18 +4494,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5082,14 +5130,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B9:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>359</v>
+      </c>
+      <c r="J10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5453,13 +5660,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="104">
+      <c r="A23" s="105">
         <v>1</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="106"/>
+      <c r="C23" s="107"/>
       <c r="E23" s="19">
         <v>1</v>
       </c>
@@ -5493,9 +5700,9 @@
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="107"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
       <c r="E24" s="19">
         <v>2</v>
       </c>
@@ -7231,8 +7438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7264,11 +7471,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="100" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -7276,35 +7483,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="70"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="70"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="70"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="70"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -7312,49 +7519,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="70"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="70"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="70"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="70"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="70"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="100" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7362,45 +7569,45 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="70"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="100"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="100" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="100"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="70"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="100"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="70"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="100" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7408,15 +7615,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="70"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -7450,10 +7657,10 @@
       <c r="B31" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="108"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="57" t="s">
         <v>168</v>
       </c>
@@ -7578,10 +7785,10 @@
       <c r="B39" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="108"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="57" t="s">
         <v>182</v>
       </c>
@@ -7720,21 +7927,21 @@
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="109">
+      <c r="E51" s="68">
         <v>43172.041666666664</v>
       </c>
-      <c r="F51" s="109">
+      <c r="F51" s="68">
         <v>43172.0625</v>
       </c>
-      <c r="G51" s="109">
+      <c r="G51" s="68">
         <v>43172.076388888891</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="109">
+      <c r="E52" s="68">
         <v>43172.555555555555</v>
       </c>
-      <c r="F52" s="109">
+      <c r="F52" s="68">
         <v>43172.565972222219</v>
       </c>
       <c r="G52" s="17" t="s">
@@ -7742,10 +7949,10 @@
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E53" s="109">
+      <c r="E53" s="68">
         <v>43172.645833333336</v>
       </c>
-      <c r="F53" s="109">
+      <c r="F53" s="68">
         <v>43172.666666666664</v>
       </c>
       <c r="G53" s="17" t="s">
@@ -7753,10 +7960,10 @@
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="109">
+      <c r="E54" s="68">
         <v>43173.166666666664</v>
       </c>
-      <c r="F54" s="109">
+      <c r="F54" s="68">
         <v>43173.194444444445</v>
       </c>
       <c r="G54" s="17" t="s">
@@ -7764,10 +7971,10 @@
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E55" s="109">
+      <c r="E55" s="68">
         <v>43173.541666666664</v>
       </c>
-      <c r="F55" s="109">
+      <c r="F55" s="68">
         <v>43173.552083333336</v>
       </c>
       <c r="G55" s="17" t="s">

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
@@ -1598,6 +1598,57 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,12 +1698,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,51 +1705,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3686,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,56 +3713,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="69" t="s">
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="70"/>
+      <c r="Q1" s="87"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="88"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3804,25 +3804,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="90" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3866,15 +3866,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3903,12 +3903,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="95"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3953,12 +3953,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="95"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4001,12 +4001,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4051,12 +4051,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4104,12 +4104,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4154,14 +4154,14 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="83" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4191,12 +4191,12 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4224,12 +4224,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4262,12 +4262,12 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="3" t="s">
         <v>342</v>
       </c>
@@ -4297,16 +4297,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="94" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="99" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4328,12 +4328,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4353,12 +4353,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4378,16 +4378,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="76" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4409,12 +4409,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="A19" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4469,18 +4469,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4494,6 +4482,18 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4505,7 +4505,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,7 +5989,7 @@
   <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,8 +7438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7471,11 +7471,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="71" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -7483,35 +7483,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="100"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="100"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="100"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -7519,49 +7519,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="100"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="100"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="100"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="100"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="71" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7569,17 +7569,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="100"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="100"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="71" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7587,27 +7587,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="100"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="100"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="71" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7615,15 +7615,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="100"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Transmisiones\repositorio\pyTransmisionesTalma\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Talma\Proyectos\ControlTransmisiones\Repositorio\pyTransmisionesTalma\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,8 +21,9 @@
     <sheet name="Consultas" sheetId="10" r:id="rId7"/>
     <sheet name="Aerolineas" sheetId="12" r:id="rId8"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="486">
   <si>
     <t>Responsable</t>
   </si>
@@ -1128,16 +1129,388 @@
   </si>
   <si>
     <t>Plomo</t>
+  </si>
+  <si>
+    <t>_Creacion de objetos y logica en BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Creación del Web Service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Enviar archivos de transmision </t>
+  </si>
+  <si>
+    <t>_Respuesta de los archivos de transmision</t>
+  </si>
+  <si>
+    <t>_Grabar respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Creacion del visor y monitoreo de transmisiones Teledespacho </t>
+  </si>
+  <si>
+    <t>Como manifiestos quiero realizar las transmisiones de los archivos a Aduanas por Teledespacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Impo quiero visualizar el listado de mis vuelos </t>
+  </si>
+  <si>
+    <t>Como Impo quiero visualizar el listado de mis obligaciones por vuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Impo quiero visualizar el listado de mis guias por vuelo </t>
+  </si>
+  <si>
+    <t>Como Impo quiero visualizar  el avance de mis obligaciones por guia de un vuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Impo quiero visualizar el listado de mis obligaciones por guia de un vuelo </t>
+  </si>
+  <si>
+    <t>Como Impo quiero visualizar el estado de mis obligaciones de una guía a través de mis indicadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Impo quiero visualizar el avance de mis obligaciones por vuelo </t>
+  </si>
+  <si>
+    <t>Como Impo quiero visualizar el estado de mis obligaciones por vuelo a través de mis indicadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Impo quiero asignar un responsable por vuelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Impo quiero re asignar un responsable por vuelo </t>
+  </si>
+  <si>
+    <t>Como Impo quiero visualizar los errores de mis transmisiones por guia de un vuelo</t>
+  </si>
+  <si>
+    <t>Como impo quiero cerrar un grupo de procesos de una guía</t>
+  </si>
+  <si>
+    <t>Hito3</t>
+  </si>
+  <si>
+    <t>Fecha de Llegada</t>
+  </si>
+  <si>
+    <t>Fecha de Transmisión</t>
+  </si>
+  <si>
+    <t>Aerolínea</t>
+  </si>
+  <si>
+    <t>Puerto de Embarque</t>
+  </si>
+  <si>
+    <t>Vuelo</t>
+  </si>
+  <si>
+    <t>23/03/2018 - 17:23:21</t>
+  </si>
+  <si>
+    <t>0E - TRANS AMERICAN AIR LINES S.A.</t>
+  </si>
+  <si>
+    <t>DOPUJ - PUNTA CANA APT</t>
+  </si>
+  <si>
+    <t>.AV971</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 03:16:32</t>
+  </si>
+  <si>
+    <t>DEFRA - FRANKFURT AM MAIN</t>
+  </si>
+  <si>
+    <t>AV131</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:36:17</t>
+  </si>
+  <si>
+    <t>INBOM - BOMBAY (MUMBAI)</t>
+  </si>
+  <si>
+    <t>AV133</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 21:19:59</t>
+  </si>
+  <si>
+    <t>BRGRU - GUARULHOS APT/SAO PAOLO</t>
+  </si>
+  <si>
+    <t>AV141</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 10:47:25</t>
+  </si>
+  <si>
+    <t>GBLHR - HEATHROW APT/LONDON</t>
+  </si>
+  <si>
+    <t>AV143</t>
+  </si>
+  <si>
+    <t>21/03/2018 - 17:46:25</t>
+  </si>
+  <si>
+    <t>COMDE - MEDELLIN</t>
+  </si>
+  <si>
+    <t>AV147</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:35:49</t>
+  </si>
+  <si>
+    <t>COCLO - CALI</t>
+  </si>
+  <si>
+    <t>AV149</t>
+  </si>
+  <si>
+    <t>23/03/2018 - 14:07:39</t>
+  </si>
+  <si>
+    <t>CLSCL - SANTIAGO</t>
+  </si>
+  <si>
+    <t>AV4184</t>
+  </si>
+  <si>
+    <t>21/03/2018 - 20:28:42</t>
+  </si>
+  <si>
+    <t>USATL - ATLANTA</t>
+  </si>
+  <si>
+    <t>AV4190</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 21:19:49</t>
+  </si>
+  <si>
+    <t>SVSAL - SAN SALVADOR</t>
+  </si>
+  <si>
+    <t>AV429</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 03:36:08</t>
+  </si>
+  <si>
+    <t>LR - LACSA</t>
+  </si>
+  <si>
+    <t>AV624</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:34:36</t>
+  </si>
+  <si>
+    <t>CRSJO - SAN JOSE</t>
+  </si>
+  <si>
+    <t>AV625</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:34:44</t>
+  </si>
+  <si>
+    <t>2K - AEROLINEAS GALAPAGOS S.A. AEROGAL SUCURSAL DEL PERU</t>
+  </si>
+  <si>
+    <t>ECUIO - QUITO</t>
+  </si>
+  <si>
+    <t>AV7388</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 04:13:01</t>
+  </si>
+  <si>
+    <t>BOVVI - VIRU VIRU</t>
+  </si>
+  <si>
+    <t>AV7389</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:36:07</t>
+  </si>
+  <si>
+    <t>ECGYE - GUAYAQUIL</t>
+  </si>
+  <si>
+    <t>AV7390</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 04:34:45</t>
+  </si>
+  <si>
+    <t>BOLPB - LA PAZ</t>
+  </si>
+  <si>
+    <t>AV7391</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 04:01:22</t>
+  </si>
+  <si>
+    <t>UYMVD - MONTEVIDEO</t>
+  </si>
+  <si>
+    <t>AV904</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 01:13:26</t>
+  </si>
+  <si>
+    <t>PYASU - ASUNCION</t>
+  </si>
+  <si>
+    <t>AV906</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 03:59:50</t>
+  </si>
+  <si>
+    <t>AV916</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 04:11:02</t>
+  </si>
+  <si>
+    <t>BRPOA - PORTO ALEGRE</t>
+  </si>
+  <si>
+    <t>AV918</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 03:12:09</t>
+  </si>
+  <si>
+    <t>BRGIG - RIO DE JANEIRO INTERNACIONAL APT</t>
+  </si>
+  <si>
+    <t>AV920</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:34:55</t>
+  </si>
+  <si>
+    <t>AV929</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:36:26</t>
+  </si>
+  <si>
+    <t>MXMEX - MEXICO CITY</t>
+  </si>
+  <si>
+    <t>AV961</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:34:16</t>
+  </si>
+  <si>
+    <t>USMIA - MIAMI</t>
+  </si>
+  <si>
+    <t>AV963</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 03:30:02</t>
+  </si>
+  <si>
+    <t>AREZE - MINISTRO PISTARINI APT/BUENOS AIR</t>
+  </si>
+  <si>
+    <t>AV964</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:35:19</t>
+  </si>
+  <si>
+    <t>AV966</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:35:31</t>
+  </si>
+  <si>
+    <t>MXCUN - CANCUN</t>
+  </si>
+  <si>
+    <t>AV969</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 17:35:40</t>
+  </si>
+  <si>
+    <t>AV971</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 21:57:52</t>
+  </si>
+  <si>
+    <t>ZZ - OTRAS</t>
+  </si>
+  <si>
+    <t>EQ515</t>
+  </si>
+  <si>
+    <t>21/03/2018 - 18:50:08</t>
+  </si>
+  <si>
+    <t>JA-400</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 00:07:00</t>
+  </si>
+  <si>
+    <t>COBOG - BOGOTA</t>
+  </si>
+  <si>
+    <t>LAU346</t>
+  </si>
+  <si>
+    <t>21/03/2018 - 18:08:32</t>
+  </si>
+  <si>
+    <t>20/03/2018 - 09:46:39</t>
+  </si>
+  <si>
+    <t>P9 - PERUVIAN AIR LINE S.A.C.</t>
+  </si>
+  <si>
+    <t>PVN330</t>
+  </si>
+  <si>
+    <t>21/03/2018 - 07:37:05</t>
+  </si>
+  <si>
+    <t>22/03/2018 - 07:59:43</t>
+  </si>
+  <si>
+    <t>Lista de vuelos que se transmiten con letras en el número de vuelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?se </t>
+  </si>
+  <si>
+    <t>Se tranmiten con las letras o al transmitirse le sacan las letran ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,8 +1574,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,8 +1704,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1418,13 +1835,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1598,12 +2052,99 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1619,93 +2160,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1721,6 +2175,35 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3686,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,56 +4196,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="86" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="87"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="103"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3804,25 +4287,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="73" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="92"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3866,15 +4349,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="91"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="93"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3903,12 +4386,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3953,12 +4436,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4001,12 +4484,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4051,12 +4534,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4104,12 +4587,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="98"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4154,14 +4637,14 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="97" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4191,12 +4674,12 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4224,12 +4707,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4262,12 +4745,12 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="3" t="s">
         <v>342</v>
       </c>
@@ -4297,16 +4780,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="77" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="82" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4328,12 +4811,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="100"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4353,12 +4836,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4378,16 +4861,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="92" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="90" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4409,12 +4892,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4920,7 @@
       <c r="A19" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4469,6 +4952,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4482,18 +4977,708 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="114"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="114"/>
+      <c r="H5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="115">
+        <v>43182</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="117" t="s">
+        <v>390</v>
+      </c>
+      <c r="F6" s="114"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="114"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" s="114"/>
+    </row>
+    <row r="9" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="114"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="114"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="115">
+        <v>43180</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="114"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="114"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="115">
+        <v>43182</v>
+      </c>
+      <c r="B13" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="114"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="115">
+        <v>43180</v>
+      </c>
+      <c r="B14" s="116" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>413</v>
+      </c>
+      <c r="E14" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="114"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="115">
+        <v>43180</v>
+      </c>
+      <c r="B15" s="116" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" s="114"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B16" s="116" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="F16" s="114"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" s="114"/>
+    </row>
+    <row r="18" spans="1:6" ht="59.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B18" s="116" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="116" t="s">
+        <v>426</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>427</v>
+      </c>
+      <c r="F18" s="114"/>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B19" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" s="116" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="117" t="s">
+        <v>430</v>
+      </c>
+      <c r="F19" s="114"/>
+    </row>
+    <row r="20" spans="1:6" ht="59.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="114"/>
+    </row>
+    <row r="21" spans="1:6" ht="59.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B21" s="116" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>435</v>
+      </c>
+      <c r="E21" s="117" t="s">
+        <v>436</v>
+      </c>
+      <c r="F21" s="114"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B22" s="116" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>438</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22" s="114"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B23" s="116" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="E23" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="114"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>398</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>444</v>
+      </c>
+      <c r="F24" s="114"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25" s="114"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B26" s="116" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>449</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>450</v>
+      </c>
+      <c r="F26" s="114"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B27" s="116" t="s">
+        <v>451</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="E27" s="117" t="s">
+        <v>452</v>
+      </c>
+      <c r="F27" s="114"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B28" s="116" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="E28" s="117" t="s">
+        <v>455</v>
+      </c>
+      <c r="F28" s="114"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="116" t="s">
+        <v>457</v>
+      </c>
+      <c r="E29" s="117" t="s">
+        <v>458</v>
+      </c>
+      <c r="F29" s="114"/>
+    </row>
+    <row r="30" spans="1:6" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>459</v>
+      </c>
+      <c r="C30" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="E30" s="117" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" s="114"/>
+    </row>
+    <row r="31" spans="1:6" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B31" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" s="114"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="E32" s="117" t="s">
+        <v>466</v>
+      </c>
+      <c r="F32" s="114"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B33" s="116" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="E33" s="117" t="s">
+        <v>468</v>
+      </c>
+      <c r="F33" s="114"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B34" s="116" t="s">
+        <v>469</v>
+      </c>
+      <c r="C34" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" s="116" t="s">
+        <v>426</v>
+      </c>
+      <c r="E34" s="117" t="s">
+        <v>471</v>
+      </c>
+      <c r="F34" s="114"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="115">
+        <v>43180</v>
+      </c>
+      <c r="B35" s="116" t="s">
+        <v>472</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="D35" s="116" t="s">
+        <v>410</v>
+      </c>
+      <c r="E35" s="117" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="114"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="115">
+        <v>43178</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>474</v>
+      </c>
+      <c r="C36" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" s="116" t="s">
+        <v>475</v>
+      </c>
+      <c r="E36" s="117" t="s">
+        <v>476</v>
+      </c>
+      <c r="F36" s="114"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="115">
+        <v>43180</v>
+      </c>
+      <c r="B37" s="116" t="s">
+        <v>477</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="D37" s="116" t="s">
+        <v>410</v>
+      </c>
+      <c r="E37" s="117" t="s">
+        <v>476</v>
+      </c>
+      <c r="F37" s="114"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="115">
+        <v>43179</v>
+      </c>
+      <c r="B38" s="116" t="s">
+        <v>478</v>
+      </c>
+      <c r="C38" s="116" t="s">
+        <v>479</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>435</v>
+      </c>
+      <c r="E38" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="F38" s="114"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="115">
+        <v>43180</v>
+      </c>
+      <c r="B39" s="116" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" s="116" t="s">
+        <v>479</v>
+      </c>
+      <c r="D39" s="116" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="F39" s="114"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="115">
+        <v>43181</v>
+      </c>
+      <c r="B40" s="116" t="s">
+        <v>482</v>
+      </c>
+      <c r="C40" s="116" t="s">
+        <v>479</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="F40" s="114"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4502,16 +5687,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="17" customWidth="1"/>
   </cols>
@@ -5121,6 +6306,166 @@
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="110"/>
+      <c r="B45" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="110"/>
+      <c r="B46" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="110"/>
+      <c r="B47" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="110"/>
+      <c r="B48" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="110"/>
+      <c r="B49" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="110"/>
+      <c r="B50" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="110"/>
+      <c r="B51" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="110"/>
+      <c r="B52" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="110"/>
+      <c r="B53" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="110"/>
+      <c r="B54" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="110"/>
+      <c r="B55" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7471,11 +8816,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="100" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -7483,35 +8828,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="71"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="71"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -7519,49 +8864,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="71"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="71"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="71"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="100" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7569,17 +8914,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="71"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="100" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7587,27 +8932,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="71"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="71"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="100" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7615,15 +8960,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="71"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="71"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -1598,12 +1598,99 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,93 +1705,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3686,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,56 +3713,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="86" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="87"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="103"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3804,25 +3804,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="73" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="92"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3866,15 +3866,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="91"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="93"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3903,12 +3903,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3953,12 +3953,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4001,12 +4001,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4051,12 +4051,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4104,12 +4104,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="98"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4154,14 +4154,14 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="97" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4191,12 +4191,12 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4224,12 +4224,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4262,12 +4262,12 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="3" t="s">
         <v>342</v>
       </c>
@@ -4297,16 +4297,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="77" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="82" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4328,12 +4328,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="100"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4353,12 +4353,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4378,16 +4378,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="92" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="90" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4409,12 +4409,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="A19" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4469,6 +4469,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4482,18 +4494,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7471,11 +7471,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="100" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -7483,35 +7483,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="71"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="71"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -7519,49 +7519,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="71"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="71"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="71"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="100" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7569,17 +7569,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="71"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="100" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7587,27 +7587,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="71"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="71"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="100" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7615,15 +7615,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="71"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="71"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="364">
   <si>
     <t>Responsable</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Autorización de la carga</t>
   </si>
   <si>
-    <t>Falta los plazo para esta obligación</t>
-  </si>
-  <si>
     <t>http://www.aduanet.gob.pe/cl-ad-itenvio/teledespachoConsultaITS02Alias?accion=consultarxOrdenOperador&amp;cadu=235&amp;tipmail=T&amp;fechproc=03/02/2018&amp;tipoper=4&amp;opera=9173&amp;wreg=01&amp;wanord=2018&amp;norden=052705</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
   </si>
   <si>
     <t xml:space="preserve">Inicialmente de donde sacamos este datos?, se va a ingresar dentro del itinerario de expo ?, contra que hora lo comparamos </t>
-  </si>
-  <si>
-    <t>3 días despúes del término de embarque</t>
   </si>
   <si>
     <t xml:space="preserve">12 horas despúes de la transmisión del manifiesto </t>
@@ -854,9 +848,6 @@
     <t>5ambar</t>
   </si>
   <si>
-    <t xml:space="preserve">Dentro de las 12 horas  siguientes a su ocurrencia del manifiesto de carga </t>
-  </si>
-  <si>
     <t>10rojo</t>
   </si>
   <si>
@@ -866,9 +857,6 @@
     <t>antes de la salida del medio de transporte</t>
   </si>
   <si>
-    <t>antes del inicio de embarque</t>
-  </si>
-  <si>
     <t xml:space="preserve">1h antes </t>
   </si>
   <si>
@@ -1128,6 +1116,24 @@
   </si>
   <si>
     <t>Plomo</t>
+  </si>
+  <si>
+    <t>HE-30mi</t>
+  </si>
+  <si>
+    <t>2 dias calendarios</t>
+  </si>
+  <si>
+    <t>1:antes del inicio de embarque</t>
+  </si>
+  <si>
+    <t>2:Dentro de las 12 horas  siguientes a su ocurrencia</t>
+  </si>
+  <si>
+    <t>Inicialmente se compara contra el itinerario(salida de vuelo)</t>
+  </si>
+  <si>
+    <t>3:2  días calendarios despúes del término de embarque</t>
   </si>
 </sst>
 </file>
@@ -1598,6 +1604,57 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,12 +1704,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,51 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3686,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,56 +3719,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="85" t="s">
+      <c r="A1" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="69" t="s">
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="70"/>
+      <c r="Q1" s="87"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="88"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3788,41 +3794,41 @@
         <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U2" t="s">
+        <v>256</v>
+      </c>
+      <c r="V2" t="s">
+        <v>255</v>
+      </c>
+      <c r="W2" t="s">
+        <v>253</v>
+      </c>
+      <c r="X2" t="s">
         <v>258</v>
       </c>
-      <c r="V2" t="s">
-        <v>257</v>
-      </c>
-      <c r="W2" t="s">
-        <v>255</v>
-      </c>
-      <c r="X2" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="95" t="s">
+      <c r="A3" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="90" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3850,36 +3856,36 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="T3" t="s">
+        <v>261</v>
+      </c>
+      <c r="U3" t="s">
+        <v>260</v>
+      </c>
+      <c r="V3" t="s">
+        <v>259</v>
+      </c>
+      <c r="W3" t="s">
+        <v>254</v>
+      </c>
+      <c r="X3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="U3" t="s">
-        <v>262</v>
-      </c>
-      <c r="V3" t="s">
-        <v>261</v>
-      </c>
-      <c r="W3" t="s">
-        <v>256</v>
-      </c>
-      <c r="X3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>84</v>
@@ -3903,12 +3909,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="95"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3949,16 +3955,16 @@
         <v>-1</v>
       </c>
       <c r="W5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="95"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4001,12 +4007,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="80"/>
+        <v>122</v>
+      </c>
+      <c r="D7" s="97"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4044,19 +4050,19 @@
         <v>11</v>
       </c>
       <c r="V7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="W7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>99</v>
@@ -4091,25 +4097,25 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="T8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="81"/>
+        <v>119</v>
+      </c>
+      <c r="D9" s="98"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4144,38 +4150,40 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="T9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="95"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="81"/>
       <c r="C10" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="83" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="3"/>
       <c r="I10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>329</v>
+      </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -4184,31 +4192,33 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="U10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="98"/>
+        <v>187</v>
+      </c>
+      <c r="D11" s="84"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="3"/>
       <c r="I11" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="27"/>
+        <v>362</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -4217,32 +4227,34 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="U11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="V11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="G12" s="24"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="I12" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
@@ -4252,35 +4264,35 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="U12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="V12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="W12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="3"/>
       <c r="I13" s="25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
@@ -4290,30 +4302,30 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="U13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="V13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>119</v>
+      <c r="A14" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>117</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
@@ -4328,12 +4340,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="83"/>
+        <v>120</v>
+      </c>
+      <c r="D15" s="100"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4353,17 +4365,17 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="84"/>
+        <v>121</v>
+      </c>
+      <c r="D16" s="101"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
@@ -4378,16 +4390,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="76" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4409,17 +4421,17 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
@@ -4435,9 +4447,9 @@
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="94"/>
+        <v>130</v>
+      </c>
+      <c r="B19" s="80"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4448,7 +4460,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
@@ -4464,23 +4476,11 @@
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="I22" s="48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4494,6 +4494,18 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4521,19 +4533,19 @@
         <v>64</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4541,14 +4553,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C2" s="65">
         <v>10</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F2" s="65"/>
     </row>
@@ -4558,14 +4570,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C3" s="65">
         <v>20</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F3" s="65"/>
     </row>
@@ -4575,14 +4587,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C4" s="65">
         <v>30</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F4" s="65"/>
     </row>
@@ -4592,14 +4604,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C5" s="65">
         <v>40</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="65" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F5" s="65"/>
     </row>
@@ -4609,14 +4621,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C6" s="65">
         <v>50</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="65" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F6" s="65"/>
     </row>
@@ -4626,12 +4638,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -4641,12 +4653,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F8" s="19"/>
     </row>
@@ -4656,12 +4668,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F9" s="19"/>
     </row>
@@ -4671,12 +4683,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F10" s="19"/>
     </row>
@@ -4686,7 +4698,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -4699,7 +4711,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -4712,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -4725,7 +4737,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4738,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4751,7 +4763,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4764,7 +4776,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4777,7 +4789,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4790,7 +4802,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4803,7 +4815,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4816,7 +4828,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -4829,7 +4841,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -4842,7 +4854,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -4855,7 +4867,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -4868,7 +4880,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4881,7 +4893,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4894,7 +4906,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -4907,7 +4919,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4920,7 +4932,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4933,7 +4945,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4946,7 +4958,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="19"/>
@@ -4959,7 +4971,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="19"/>
@@ -4972,7 +4984,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="19"/>
@@ -4985,7 +4997,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="19"/>
@@ -4998,7 +5010,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="19"/>
@@ -5011,7 +5023,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="19"/>
@@ -5024,7 +5036,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="19"/>
@@ -5037,7 +5049,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -5050,7 +5062,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -5063,7 +5075,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -5076,7 +5088,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -5089,7 +5101,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -5102,7 +5114,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -5115,7 +5127,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -5143,18 +5155,18 @@
   <sheetData>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G10" t="s">
         <v>81</v>
@@ -5163,26 +5175,26 @@
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -5193,10 +5205,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5207,36 +5219,36 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" t="s">
         <v>353</v>
-      </c>
-      <c r="D16" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -5247,28 +5259,28 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" t="s">
         <v>353</v>
-      </c>
-      <c r="D20" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -5279,10 +5291,10 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -5356,7 +5368,7 @@
   <sheetData>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5372,8 +5384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5452,15 +5464,15 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>4</v>
@@ -5468,34 +5480,34 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="O13" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5503,16 +5515,16 @@
         <v>64</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="R14" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="S14" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="R14" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="S14" s="47" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5520,16 +5532,16 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5537,16 +5549,16 @@
         <v>2</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -5554,13 +5566,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S17" s="2">
         <v>1234567</v>
@@ -5571,13 +5583,13 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S18" s="2">
         <v>1234567</v>
@@ -5592,19 +5604,19 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>136</v>
-      </c>
       <c r="K21" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" s="41" t="s">
         <v>144</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -5612,51 +5624,51 @@
         <v>64</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O22" s="43" t="s">
         <v>64</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R22" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="T22" s="43" t="s">
         <v>155</v>
-      </c>
-      <c r="S22" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="T22" s="43" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -5671,13 +5683,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="44">
         <v>1</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5688,13 +5700,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -5707,13 +5719,13 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H24" s="44">
         <v>2</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K24" s="2">
         <v>2</v>
@@ -5724,13 +5736,13 @@
         <v>2</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -5747,13 +5759,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H25" s="44">
         <v>3</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K25" s="2">
         <v>3</v>
@@ -5764,13 +5776,13 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -5807,7 +5819,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -5852,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -5861,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -5870,7 +5882,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -6005,39 +6017,39 @@
   <sheetData>
     <row r="1" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -6045,16 +6057,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -6062,16 +6074,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6079,16 +6091,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6096,16 +6108,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6113,16 +6125,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -6130,16 +6142,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6147,16 +6159,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -6164,16 +6176,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6181,16 +6193,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6198,16 +6210,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6215,16 +6227,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6232,16 +6244,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6249,16 +6261,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6266,16 +6278,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6283,16 +6295,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6300,16 +6312,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6317,16 +6329,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6334,16 +6346,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6351,16 +6363,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6368,16 +6380,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6385,16 +6397,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6402,16 +6414,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -7471,11 +7483,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="71" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -7483,35 +7495,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="100"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="100"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="100"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="71" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -7519,49 +7531,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="100"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="100"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="100"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="100"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="71" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7569,17 +7581,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="100"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="100"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="71" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7587,27 +7599,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="100"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="100"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="71" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7615,15 +7627,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="100"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -7655,35 +7667,35 @@
     <row r="30" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D31" s="109"/>
       <c r="E31" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="H31" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="I31" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="57" t="s">
-        <v>172</v>
-      </c>
       <c r="J31" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K31" s="57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L31" s="57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7692,13 +7704,13 @@
         <v>43104</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D32" s="54">
         <v>761</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="55">
         <v>201800000000359</v>
@@ -7715,13 +7727,13 @@
         <v>43104</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="54">
         <v>46</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F33" s="55">
         <v>201800000000361</v>
@@ -7738,13 +7750,13 @@
         <v>43104</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" s="54">
         <v>2393</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F34" s="55">
         <v>201800000000352</v>
@@ -7761,13 +7773,13 @@
         <v>43104</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D35" s="54">
         <v>143</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F35" s="55">
         <v>201800000000396</v>
@@ -7783,32 +7795,32 @@
     <row r="38" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" s="109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D39" s="109"/>
       <c r="E39" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="F39" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" s="58" t="s">
+      <c r="I39" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="J39" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="J39" s="58" t="s">
-        <v>186</v>
-      </c>
       <c r="K39" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7817,13 +7829,13 @@
         <v>43104</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D40" s="54">
         <v>761</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F40" s="55">
         <v>201800000000359</v>
@@ -7841,13 +7853,13 @@
         <v>43104</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41" s="54">
         <v>46</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F41" s="55">
         <v>201800000000361</v>
@@ -7865,13 +7877,13 @@
         <v>43104</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="54">
         <v>2393</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F42" s="55">
         <v>201800000000352</v>
@@ -7889,13 +7901,13 @@
         <v>43104</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="54">
         <v>143</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" s="55">
         <v>201800000000396</v>
@@ -7911,19 +7923,19 @@
     <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E50" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -7945,7 +7957,7 @@
         <v>43172.565972222219</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
@@ -7956,7 +7968,7 @@
         <v>43172.666666666664</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
@@ -7967,7 +7979,7 @@
         <v>43173.194444444445</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
@@ -7978,7 +7990,7 @@
         <v>43173.552083333336</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
-    <sheet name="HU" sheetId="9" r:id="rId2"/>
-    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId3"/>
-    <sheet name="Links" sheetId="6" r:id="rId4"/>
-    <sheet name="Pantallas" sheetId="5" r:id="rId5"/>
-    <sheet name="Tablas" sheetId="7" r:id="rId6"/>
-    <sheet name="Consultas" sheetId="10" r:id="rId7"/>
-    <sheet name="Aerolineas" sheetId="12" r:id="rId8"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="13" r:id="rId2"/>
+    <sheet name="HU" sheetId="9" r:id="rId3"/>
+    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId4"/>
+    <sheet name="Links" sheetId="6" r:id="rId5"/>
+    <sheet name="Pantallas" sheetId="5" r:id="rId6"/>
+    <sheet name="Tablas" sheetId="7" r:id="rId7"/>
+    <sheet name="Consultas" sheetId="10" r:id="rId8"/>
+    <sheet name="Aerolineas" sheetId="12" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="361">
   <si>
     <t>Responsable</t>
   </si>
@@ -1031,9 +1032,6 @@
     <t>CLSCL y COBOG</t>
   </si>
   <si>
-    <t>HE</t>
-  </si>
-  <si>
     <t>HS</t>
   </si>
   <si>
@@ -1118,22 +1116,16 @@
     <t>Plomo</t>
   </si>
   <si>
-    <t>HE-30mi</t>
-  </si>
-  <si>
-    <t>2 dias calendarios</t>
-  </si>
-  <si>
     <t>1:antes del inicio de embarque</t>
   </si>
   <si>
     <t>2:Dentro de las 12 horas  siguientes a su ocurrencia</t>
   </si>
   <si>
-    <t>Inicialmente se compara contra el itinerario(salida de vuelo)</t>
-  </si>
-  <si>
     <t>3:2  días calendarios despúes del término de embarque</t>
+  </si>
+  <si>
+    <t>Inicialmente se compara contra el itinerario(hora salida-1), luego al crear la cabecera (hora T. embarque - 30mi)</t>
   </si>
 </sst>
 </file>
@@ -1604,12 +1596,99 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1624,93 +1703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3692,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,56 +3711,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="86" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="87"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="103"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="88"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3810,25 +3802,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="73" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="92"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3872,15 +3864,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="91"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="93"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3909,12 +3901,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="97"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3959,12 +3951,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4007,12 +3999,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4057,12 +4049,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4110,12 +4102,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="98"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4160,21 +4152,21 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="97" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="3"/>
@@ -4199,25 +4191,25 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="3"/>
       <c r="I11" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
@@ -4234,22 +4226,20 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G12" s="24"/>
-      <c r="H12" s="3" t="s">
-        <v>359</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="25" t="s">
         <v>112</v>
       </c>
@@ -4274,14 +4264,14 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="82"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>270</v>
@@ -4289,11 +4279,9 @@
       <c r="G13" s="24"/>
       <c r="H13" s="3"/>
       <c r="I13" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>330</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -4309,16 +4297,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="77" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="82" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4340,12 +4328,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="100"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4365,12 +4353,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="101"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4390,16 +4378,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="92" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="90" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4421,12 +4409,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4449,7 +4437,7 @@
       <c r="A19" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4481,6 +4469,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4494,2959 +4494,13 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="89.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
-        <v>1</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="65">
-        <v>10</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="65">
-        <v>20</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="65"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
-        <f t="shared" ref="A4:A44" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="65">
-        <v>30</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="65"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="65">
-        <v>40</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="65"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="65">
-        <v>50</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="44">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="44">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="44">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="44">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="44">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="44">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="44">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:K24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>348</v>
-      </c>
-      <c r="I9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>355</v>
-      </c>
-      <c r="J10" t="s">
-        <v>354</v>
-      </c>
-      <c r="K10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" t="s">
-        <v>352</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" t="s">
-        <v>352</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" t="s">
-        <v>352</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" t="s">
-        <v>352</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="121.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="O13" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O14" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="R14" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="S14" s="47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O16" s="2">
-        <v>2</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O17" s="2">
-        <v>3</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1234567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O18" s="2">
-        <v>4</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1234567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="S22" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="T22" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="105">
-        <v>1</v>
-      </c>
-      <c r="B23" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="E23" s="19">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="44">
-        <v>1</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
-      <c r="E24" s="19">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="44">
-        <v>2</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="O24" s="2">
-        <v>2</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>2</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="E25" s="19">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="44">
-        <v>3</v>
-      </c>
-      <c r="I25" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="2">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="O25" s="2">
-        <v>3</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>3</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>4</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>5</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>6</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>7</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>8</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>9</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>10</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>11</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>12</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>13</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>14</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>15</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>16</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12" style="17" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D140">
-    <sortCondition ref="A14"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
@@ -7483,11 +4537,11 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="100" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -7495,35 +4549,35 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="71"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="71"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="100" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -7531,49 +4585,49 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="71"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="71"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="71"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="100" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7581,17 +4635,17 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="71"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="100" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -7599,27 +4653,27 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="71"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="71"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="100" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="100" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7627,15 +4681,15 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="71"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="71"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="40"/>
       <c r="D19" s="7" t="s">
         <v>28</v>
@@ -7923,19 +4977,19 @@
     <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H50" t="s">
         <v>340</v>
-      </c>
-      <c r="E50" t="s">
-        <v>331</v>
-      </c>
-      <c r="F50" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="H50" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -7957,7 +5011,7 @@
         <v>43172.565972222219</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
@@ -7968,7 +5022,7 @@
         <v>43172.666666666664</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
@@ -7979,7 +5033,7 @@
         <v>43173.194444444445</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
@@ -7990,7 +5044,7 @@
         <v>43173.552083333336</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -8010,4 +5064,3083 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>559.93359999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>180.59899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>180.59899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>190.7824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>189.43719999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>180.59899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>859.13440000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>180.59899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>180.59899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>242.82040000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>180.59899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1424.9562000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>291.08240000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>180.59899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>220.30600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>291.08240000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="65">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="65">
+        <v>10</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="65">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="65">
+        <v>20</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="65"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="65">
+        <f t="shared" ref="A4:A44" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="65">
+        <v>30</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="65">
+        <v>40</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="65">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="65">
+        <v>50</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="44">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="44">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="44">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="44">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="44">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="44">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="44">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="44">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="44">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="44">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="44">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B9:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="121.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="O13" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="R14" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>3</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="T22" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="105">
+        <v>1</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="44">
+        <v>1</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
+      <c r="E24" s="19">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="44">
+        <v>2</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>2</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="19">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="44">
+        <v>3</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="O25" s="2">
+        <v>3</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>4</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>5</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>6</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>7</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>8</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>9</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>10</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>11</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>12</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>13</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>14</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>15</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>16</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="19"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="19"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="19"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="19"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="19"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="19"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="19"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="19"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="19"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="19"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="19"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="19"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="19"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="19"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="19"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="19"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="19"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="19"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="19"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="19"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="19"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="19"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="19"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="19"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="19"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="19"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="19"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="19"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="19"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="19"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="19"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="19"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="19"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="19"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="19"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="19"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="19"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="19"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="19"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="19"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="19"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="19"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D140">
+    <sortCondition ref="A14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos/MapeoProyecto.xlsx
+++ b/Documentos/MapeoProyecto.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="13" r:id="rId2"/>
-    <sheet name="HU" sheetId="9" r:id="rId3"/>
-    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId4"/>
-    <sheet name="Links" sheetId="6" r:id="rId5"/>
-    <sheet name="Pantallas" sheetId="5" r:id="rId6"/>
-    <sheet name="Tablas" sheetId="7" r:id="rId7"/>
-    <sheet name="Consultas" sheetId="10" r:id="rId8"/>
-    <sheet name="Aerolineas" sheetId="12" r:id="rId9"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId10"/>
+    <sheet name="HU" sheetId="9" r:id="rId2"/>
+    <sheet name="NumeracionManifCarga" sheetId="3" r:id="rId3"/>
+    <sheet name="Links" sheetId="6" r:id="rId4"/>
+    <sheet name="Pantallas" sheetId="5" r:id="rId5"/>
+    <sheet name="Tablas" sheetId="7" r:id="rId6"/>
+    <sheet name="Consultas" sheetId="10" r:id="rId7"/>
+    <sheet name="Aerolineas" sheetId="12" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1596,6 +1595,57 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,12 +1695,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,51 +1702,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1873,7 +1872,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>65773</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>532929</xdr:rowOff>
+      <xdr:rowOff>380529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3711,56 +3710,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="69" t="s">
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="70"/>
+      <c r="Q1" s="87"/>
     </row>
     <row r="2" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="88"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="31" t="s">
         <v>88</v>
       </c>
@@ -3802,25 +3801,25 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="90" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3864,15 +3863,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3901,12 +3900,12 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="95"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3951,12 +3950,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="95"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3999,12 +3998,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4049,12 +4048,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4102,12 +4101,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4152,14 +4151,14 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="83" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4191,12 +4190,12 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4226,12 +4225,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4264,12 +4263,12 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="3" t="s">
         <v>337</v>
       </c>
@@ -4297,16 +4296,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="94" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="99" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4328,12 +4327,12 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4353,12 +4352,12 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4378,16 +4377,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="76" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4409,12 +4408,12 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4436,7 @@
       <c r="A19" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
@@ -4469,18 +4468,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
@@ -4494,729 +4481,30 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
-  <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="100"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="100"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="109"/>
-      <c r="E31" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" s="57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="54">
-        <v>761</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="55">
-        <v>201800000000359</v>
-      </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-    </row>
-    <row r="33" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="54">
-        <v>46</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="55">
-        <v>201800000000361</v>
-      </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-    </row>
-    <row r="34" spans="1:12" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="54">
-        <v>2393</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="55">
-        <v>201800000000352</v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-    </row>
-    <row r="35" spans="1:12" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="54">
-        <v>143</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="55">
-        <v>201800000000396</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-    </row>
-    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="I39" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="J39" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="K39" s="58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="54">
-        <v>761</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="55">
-        <v>201800000000359</v>
-      </c>
-      <c r="G40" s="54">
-        <v>23</v>
-      </c>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-    </row>
-    <row r="41" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="54">
-        <v>46</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="55">
-        <v>201800000000361</v>
-      </c>
-      <c r="G41" s="54">
-        <v>25</v>
-      </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-    </row>
-    <row r="42" spans="1:12" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="54">
-        <v>2393</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="55">
-        <v>201800000000352</v>
-      </c>
-      <c r="G42" s="54">
-        <v>27</v>
-      </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-    </row>
-    <row r="43" spans="1:12" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="53">
-        <v>43104</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="54">
-        <v>143</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="55">
-        <v>201800000000396</v>
-      </c>
-      <c r="G43" s="54">
-        <v>29</v>
-      </c>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-    </row>
-    <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E50" t="s">
-        <v>330</v>
-      </c>
-      <c r="F50" t="s">
-        <v>331</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="H50" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="68">
-        <v>43172.041666666664</v>
-      </c>
-      <c r="F51" s="68">
-        <v>43172.0625</v>
-      </c>
-      <c r="G51" s="68">
-        <v>43172.076388888891</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="68">
-        <v>43172.555555555555</v>
-      </c>
-      <c r="F52" s="68">
-        <v>43172.565972222219</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E53" s="68">
-        <v>43172.645833333336</v>
-      </c>
-      <c r="F53" s="68">
-        <v>43172.666666666664</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="68">
-        <v>43173.166666666664</v>
-      </c>
-      <c r="F54" s="68">
-        <v>43173.194444444445</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E55" s="68">
-        <v>43173.541666666664</v>
-      </c>
-      <c r="F55" s="68">
-        <v>43173.552083333336</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>559.93359999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>180.59899999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>180.59899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>190.7824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>189.43719999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>180.59899999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>859.13440000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>180.59899999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>180.59899999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>242.82040000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>180.59899999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1424.9562000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>291.08240000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>180.59899999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>220.30600000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>291.08240000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:K24"/>
   <sheetViews>
@@ -6013,7 +5301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -6055,7 +5343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B28"/>
   <sheetViews>
@@ -6079,7 +5367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
@@ -6622,7 +5910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6695,7 +5983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G136"/>
   <sheetViews>
@@ -8143,4 +7431,708 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="71"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="71"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="71"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="71"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="71"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="71"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="71"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="71"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="71"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="71"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="71"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="71"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="109"/>
+      <c r="E31" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" s="57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="54">
+        <v>761</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="55">
+        <v>201800000000359</v>
+      </c>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="54">
+        <v>46</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="55">
+        <v>201800000000361</v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="34" spans="1:12" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="54">
+        <v>2393</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="55">
+        <v>201800000000352</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+    </row>
+    <row r="35" spans="1:12" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="54">
+        <v>143</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="55">
+        <v>201800000000396</v>
+      </c>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:12" s="51" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="54">
+        <v>761</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="55">
+        <v>201800000000359</v>
+      </c>
+      <c r="G40" s="54">
+        <v>23</v>
+      </c>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+    </row>
+    <row r="41" spans="1:12" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="54">
+        <v>46</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="55">
+        <v>201800000000361</v>
+      </c>
+      <c r="G41" s="54">
+        <v>25</v>
+      </c>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+    </row>
+    <row r="42" spans="1:12" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="54">
+        <v>2393</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="55">
+        <v>201800000000352</v>
+      </c>
+      <c r="G42" s="54">
+        <v>27</v>
+      </c>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+    </row>
+    <row r="43" spans="1:12" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="53">
+        <v>43104</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="54">
+        <v>143</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="55">
+        <v>201800000000396</v>
+      </c>
+      <c r="G43" s="54">
+        <v>29</v>
+      </c>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+    </row>
+    <row r="44" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E51" s="68">
+        <v>43172.041666666664</v>
+      </c>
+      <c r="F51" s="68">
+        <v>43172.0625</v>
+      </c>
+      <c r="G51" s="68">
+        <v>43172.076388888891</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="68">
+        <v>43172.555555555555</v>
+      </c>
+      <c r="F52" s="68">
+        <v>43172.565972222219</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E53" s="68">
+        <v>43172.645833333336</v>
+      </c>
+      <c r="F53" s="68">
+        <v>43172.666666666664</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E54" s="68">
+        <v>43173.166666666664</v>
+      </c>
+      <c r="F54" s="68">
+        <v>43173.194444444445</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E55" s="68">
+        <v>43173.541666666664</v>
+      </c>
+      <c r="F55" s="68">
+        <v>43173.552083333336</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f>SUM(D57:D70)</f>
+        <v>109</v>
+      </c>
+      <c r="E71">
+        <f>SUM(E57:E70)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f xml:space="preserve"> D71/ 22</f>
+        <v>4.9545454545454541</v>
+      </c>
+      <c r="E72">
+        <f>E71 / 22</f>
+        <v>4.0454545454545459</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f>D71/8</f>
+        <v>13.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>